--- a/publication/analyses/outputs/rmse_z/gdptlab_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin_r-z_rmse-z.xlsx
@@ -577,28 +577,28 @@
         <v>139.44417591386</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.19601921397422</v>
+        <v>-47.19600900541643</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.80828328439721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6122761639010662</v>
+        <v>0.6122742789807749</v>
       </c>
       <c r="I2" t="n">
-        <v>0.777004229205005</v>
+        <v>0.7770020480746271</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2851232237095155</v>
+        <v>0.2851232238869818</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.007901919326750422</v>
+        <v>-0.007901917075678267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6530153118301284</v>
+        <v>0.6530153138179904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4235472011745179</v>
+        <v>0.4235472115163216</v>
       </c>
       <c r="N2" t="n">
         <v>48.92</v>
@@ -622,13 +622,13 @@
         <v>1.265006527540566</v>
       </c>
       <c r="U2" t="n">
-        <v>47.19601921397422</v>
+        <v>47.19600900541643</v>
       </c>
       <c r="V2" t="n">
         <v>139.44417591386</v>
       </c>
       <c r="W2" t="n">
-        <v>1.061418505596384</v>
+        <v>1.061416948539414</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -657,28 +657,28 @@
         <v>137.2763962371615</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.28050361242789</v>
+        <v>-43.28050367094194</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1341455804382508</v>
+        <v>-0.1341455674467402</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5730456288003288</v>
+        <v>0.5730456293996358</v>
       </c>
       <c r="J3" t="n">
-        <v>0.131838529520055</v>
+        <v>0.1318385295055042</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1368590662186981</v>
+        <v>-0.1368590662306963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7106657469822314</v>
+        <v>0.7106657469800191</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4799748085935022</v>
+        <v>0.4799748085886807</v>
       </c>
       <c r="N3" t="n">
         <v>56.96153846153846</v>
@@ -702,13 +702,13 @@
         <v>1.454539829692751</v>
       </c>
       <c r="U3" t="n">
-        <v>43.28050361242789</v>
+        <v>43.28050367094194</v>
       </c>
       <c r="V3" t="n">
         <v>137.2763962371615</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7758479029883599</v>
+        <v>0.7758478949860328</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -737,28 +737,28 @@
         <v>160.478958559411</v>
       </c>
       <c r="F4" t="n">
-        <v>-38.01834893828927</v>
+        <v>-38.0183502140303</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3331604997766601</v>
+        <v>-0.333160119555323</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248616495499292</v>
+        <v>1.248616353035964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09137573606478139</v>
+        <v>0.09137573589501728</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004156574291054895</v>
+        <v>0.004156573852274393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8102812054718349</v>
+        <v>0.8102812056399193</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1404243371049575</v>
+        <v>0.1404243366249247</v>
       </c>
       <c r="N4" t="n">
         <v>58.95652173913044</v>
@@ -782,13 +782,13 @@
         <v>1.620247119176773</v>
       </c>
       <c r="U4" t="n">
-        <v>38.01834893828927</v>
+        <v>38.0183502140303</v>
       </c>
       <c r="V4" t="n">
         <v>160.478958559411</v>
       </c>
       <c r="W4" t="n">
-        <v>1.836635604779766</v>
+        <v>1.836635320695681</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -817,28 +817,28 @@
         <v>155.4528135385222</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.2236930735389</v>
+        <v>-33.2236930715323</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2398127383197434</v>
+        <v>-0.239812739162179</v>
       </c>
       <c r="I5" t="n">
-        <v>1.083676485109957</v>
+        <v>1.083676485745391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1172347092208549</v>
+        <v>0.1172347092204389</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08660444733153677</v>
+        <v>-0.08660444733232553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8879623028168759</v>
+        <v>0.8879623028170868</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.017736635989042</v>
+        <v>-0.01773663598861261</v>
       </c>
       <c r="N5" t="n">
         <v>52.63888888888889</v>
@@ -862,13 +862,13 @@
         <v>1.898778393468774</v>
       </c>
       <c r="U5" t="n">
-        <v>33.2236930735389</v>
+        <v>33.2236930715323</v>
       </c>
       <c r="V5" t="n">
         <v>155.4528135385222</v>
       </c>
       <c r="W5" t="n">
-        <v>1.525816567940657</v>
+        <v>1.525816568288392</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -897,28 +897,28 @@
         <v>149.6565242912739</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.19008682006174</v>
+        <v>-29.19008682104092</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7801310565586663</v>
+        <v>-0.7801310562925942</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8908753769081152</v>
+        <v>0.8908753766263614</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.009347007675153193</v>
+        <v>-0.009347007675137508</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006847725673010504</v>
+        <v>0.006847725672937967</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6354639983737684</v>
+        <v>0.635463998373712</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01962232683769086</v>
+        <v>-0.01962232683768276</v>
       </c>
       <c r="N6" t="n">
         <v>49.03448275862069</v>
@@ -942,13 +942,13 @@
         <v>1.929891728428187</v>
       </c>
       <c r="U6" t="n">
-        <v>29.19008682006174</v>
+        <v>29.19008682104092</v>
       </c>
       <c r="V6" t="n">
         <v>149.6565242912739</v>
       </c>
       <c r="W6" t="n">
-        <v>0.967331593731775</v>
+        <v>0.9673315934928995</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -977,28 +977,28 @@
         <v>148.0800678413079</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.71050133316098</v>
+        <v>-23.71050142744377</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8428040394446632</v>
+        <v>-0.8428040193084549</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8687900609563459</v>
+        <v>0.8687900429414885</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007114325831495688</v>
+        <v>-0.007114325847662423</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.008542815663774659</v>
+        <v>-0.0085428156854699</v>
       </c>
       <c r="L7" t="n">
-        <v>0.333223878064209</v>
+        <v>0.3332238780791</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0558431742290277</v>
+        <v>-0.05584317422404966</v>
       </c>
       <c r="N7" t="n">
         <v>48.6</v>
@@ -1022,13 +1022,13 @@
         <v>2.027027216249507</v>
       </c>
       <c r="U7" t="n">
-        <v>23.71050133316098</v>
+        <v>23.71050142744377</v>
       </c>
       <c r="V7" t="n">
         <v>148.0800678413079</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9616103997690804</v>
+        <v>0.9616103891101175</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1057,28 +1057,28 @@
         <v>149.0794469846954</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.16995966850989</v>
+        <v>-19.1699596672272</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9647556985012032</v>
+        <v>-0.9647556987560592</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9647556985012032</v>
+        <v>0.9647556987560592</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02796851914824198</v>
+        <v>-0.02796851914800363</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01591524403561669</v>
+        <v>-0.01591524403516494</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2987321507959957</v>
+        <v>0.298732150795827</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.004926690598453153</v>
+        <v>-0.004926690598644999</v>
       </c>
       <c r="N8" t="n">
         <v>49.05263157894737</v>
@@ -1102,13 +1102,13 @@
         <v>2.16958293036635</v>
       </c>
       <c r="U8" t="n">
-        <v>19.16995966850989</v>
+        <v>19.1699596672272</v>
       </c>
       <c r="V8" t="n">
         <v>149.0794469846954</v>
       </c>
       <c r="W8" t="n">
-        <v>1.040362882006355</v>
+        <v>1.040362882128254</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1137,28 +1137,28 @@
         <v>148.2136740123005</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.39091281019863</v>
+        <v>-14.39091301461242</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8555307746790055</v>
+        <v>-0.8555307059257494</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8555307746790055</v>
+        <v>0.8555307059257494</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.07893643681032074</v>
+        <v>-0.07893643685752967</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009631100906738748</v>
+        <v>0.009631100799390897</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2964987346072727</v>
+        <v>0.2964987346423765</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1078586922238109</v>
+        <v>-0.1078586921736092</v>
       </c>
       <c r="N9" t="n">
         <v>48.6</v>
@@ -1182,13 +1182,13 @@
         <v>2.18324638859347</v>
       </c>
       <c r="U9" t="n">
-        <v>14.39091281019863</v>
+        <v>14.39091301461242</v>
       </c>
       <c r="V9" t="n">
         <v>148.2136740123005</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9424240315366842</v>
+        <v>0.9424239928239283</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1217,28 +1217,28 @@
         <v>155.8863700510839</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.792236487161192</v>
+        <v>-8.792237027683267</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3798703849178464</v>
+        <v>-0.3798700466217319</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7789439322879479</v>
+        <v>0.7789439908889293</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01254837843545967</v>
+        <v>0.01254837845014928</v>
       </c>
       <c r="K10" t="n">
-        <v>0.067877750131389</v>
+        <v>0.06787775017731974</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2550662003645803</v>
+        <v>0.2550662006348204</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07282924892242128</v>
+        <v>-0.07282924909751637</v>
       </c>
       <c r="N10" t="n">
         <v>45.95555555555556</v>
@@ -1262,13 +1262,13 @@
         <v>2.160769490456151</v>
       </c>
       <c r="U10" t="n">
-        <v>8.792236487161192</v>
+        <v>8.792237027683267</v>
       </c>
       <c r="V10" t="n">
         <v>155.8863700510839</v>
       </c>
       <c r="W10" t="n">
-        <v>0.950310033019772</v>
+        <v>0.9503100296631735</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1297,28 +1297,28 @@
         <v>147.7003569229774</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.085588648224347</v>
+        <v>-2.085588646171479</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H11" t="n">
-        <v>2.076527227440885</v>
+        <v>2.076527226785457</v>
       </c>
       <c r="I11" t="n">
-        <v>2.923210708931628</v>
+        <v>2.923210708756944</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01058897554811263</v>
+        <v>0.01058897554792198</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02998528553131993</v>
+        <v>0.02998528553160459</v>
       </c>
       <c r="L11" t="n">
-        <v>0.309003591140825</v>
+        <v>0.3090035911406088</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3235339311925773</v>
+        <v>-0.3235339311922456</v>
       </c>
       <c r="N11" t="n">
         <v>49.92307692307692</v>
@@ -1342,13 +1342,13 @@
         <v>2.200808351560046</v>
       </c>
       <c r="U11" t="n">
-        <v>2.085588648224347</v>
+        <v>2.085588646171479</v>
       </c>
       <c r="V11" t="n">
         <v>147.7003569229774</v>
       </c>
       <c r="W11" t="n">
-        <v>3.102176078796012</v>
+        <v>3.102176078556169</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1377,28 +1377,28 @@
         <v>143.6844127985758</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6323157898201165</v>
+        <v>-0.6323156693345687</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.132315789820117</v>
+        <v>-2.132315669334569</v>
       </c>
       <c r="I12" t="n">
-        <v>2.183111177497548</v>
+        <v>2.183111077304228</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02749682199932808</v>
+        <v>-0.0274968220020613</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05218934779172616</v>
+        <v>0.05218934778595496</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2437786814937876</v>
+        <v>0.2437786814969362</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1390903481270397</v>
+        <v>0.1390903481347434</v>
       </c>
       <c r="N12" t="n">
         <v>49.38888888888889</v>
@@ -1422,13 +1422,13 @@
         <v>2.248816355665584</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6323157898201165</v>
+        <v>0.6323156693345687</v>
       </c>
       <c r="V12" t="n">
         <v>143.6844127985758</v>
       </c>
       <c r="W12" t="n">
-        <v>2.260291067153007</v>
+        <v>2.260290958758782</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1457,28 +1457,28 @@
         <v>148.5324253274257</v>
       </c>
       <c r="F13" t="n">
-        <v>4.605806059883457</v>
+        <v>4.605805460225082</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.277784511902371</v>
+        <v>-2.277784416243218</v>
       </c>
       <c r="I13" t="n">
-        <v>2.277784511902371</v>
+        <v>2.277784416243218</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09932564447919073</v>
+        <v>-0.09932564417428263</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1137966004208377</v>
+        <v>0.1137966004021615</v>
       </c>
       <c r="L13" t="n">
-        <v>0.288001910945446</v>
+        <v>0.2880019109465717</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.410998397967496</v>
+        <v>-0.4109983979412766</v>
       </c>
       <c r="N13" t="n">
         <v>51</v>
@@ -1502,13 +1502,13 @@
         <v>2.155864441452001</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.605806059883457</v>
+        <v>-4.605805460225082</v>
       </c>
       <c r="V13" t="n">
         <v>148.5324253274257</v>
       </c>
       <c r="W13" t="n">
-        <v>2.325888441321003</v>
+        <v>2.325888363167502</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1537,28 +1537,28 @@
         <v>120.8308473713893</v>
       </c>
       <c r="F14" t="n">
-        <v>15.38922339047746</v>
+        <v>15.38923714772245</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.617864375616753</v>
+        <v>-1.617862767253715</v>
       </c>
       <c r="I14" t="n">
-        <v>1.617864375616753</v>
+        <v>1.617862767253715</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1809105918368914</v>
+        <v>0.180910581065848</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.227712011254232</v>
+        <v>-0.2277120042899014</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3972480298522745</v>
+        <v>0.3972480231172097</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7357651152667628</v>
+        <v>-0.7357651153672613</v>
       </c>
       <c r="N14" t="n">
         <v>52.8</v>
@@ -1582,13 +1582,13 @@
         <v>2.079850777440175</v>
       </c>
       <c r="U14" t="n">
-        <v>-15.38922339047746</v>
+        <v>-15.38923714772245</v>
       </c>
       <c r="V14" t="n">
         <v>120.8308473713893</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66968853107179</v>
+        <v>1.669686459517412</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1617,28 +1617,28 @@
         <v>127.0682131098356</v>
       </c>
       <c r="F15" t="n">
-        <v>26.56101780482738</v>
+        <v>26.56101780365711</v>
       </c>
       <c r="G15" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.284164029558215</v>
+        <v>-1.284164029318918</v>
       </c>
       <c r="I15" t="n">
-        <v>1.284164029558215</v>
+        <v>1.284164029318918</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03788759800611417</v>
+        <v>-0.03788759800553526</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.06882219182776189</v>
+        <v>-0.06882219182798029</v>
       </c>
       <c r="L15" t="n">
-        <v>0.283471605804903</v>
+        <v>0.2834716058049646</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07116656568156637</v>
+        <v>-0.07116656568115519</v>
       </c>
       <c r="N15" t="n">
         <v>49.73684210526316</v>
@@ -1662,13 +1662,13 @@
         <v>1.993790422946172</v>
       </c>
       <c r="U15" t="n">
-        <v>-26.56101780482738</v>
+        <v>-26.56101780365711</v>
       </c>
       <c r="V15" t="n">
         <v>127.0682131098356</v>
       </c>
       <c r="W15" t="n">
-        <v>1.402063965654702</v>
+        <v>1.402063965374586</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1697,28 +1697,28 @@
         <v>145.1043927396902</v>
       </c>
       <c r="F16" t="n">
-        <v>31.12897643106711</v>
+        <v>31.12897642980639</v>
       </c>
       <c r="G16" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.503795292077659</v>
+        <v>-1.50379529173922</v>
       </c>
       <c r="I16" t="n">
-        <v>1.503795292077659</v>
+        <v>1.50379529173922</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08726098854278096</v>
+        <v>-0.08726098854264579</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1203093997043797</v>
+        <v>-0.1203093997044644</v>
       </c>
       <c r="L16" t="n">
-        <v>0.339560853228872</v>
+        <v>0.3395608532288576</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7269747021902577</v>
+        <v>-0.7269747021893608</v>
       </c>
       <c r="N16" t="n">
         <v>46.93333333333333</v>
@@ -1742,13 +1742,13 @@
         <v>2.021394509488612</v>
       </c>
       <c r="U16" t="n">
-        <v>-31.12897643106711</v>
+        <v>-31.12897642980639</v>
       </c>
       <c r="V16" t="n">
         <v>145.1043927396902</v>
       </c>
       <c r="W16" t="n">
-        <v>1.608104788597323</v>
+        <v>1.608104788236711</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1777,28 +1777,28 @@
         <v>148.8034310544471</v>
       </c>
       <c r="F17" t="n">
-        <v>36.15118019274004</v>
+        <v>36.15117885889561</v>
       </c>
       <c r="G17" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.541734633440212</v>
+        <v>-1.541734370871175</v>
       </c>
       <c r="I17" t="n">
-        <v>1.541734633440212</v>
+        <v>1.541734370871175</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.08551981019632494</v>
+        <v>-0.08551981015007673</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1784575510380878</v>
+        <v>-0.1784575509583609</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4388212089843312</v>
+        <v>0.438821208818602</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.9140135508937034</v>
+        <v>-0.914013549772321</v>
       </c>
       <c r="N17" t="n">
         <v>49.73809523809524</v>
@@ -1822,13 +1822,13 @@
         <v>2.042660558701523</v>
       </c>
       <c r="U17" t="n">
-        <v>-36.15118019274004</v>
+        <v>-36.15117885889561</v>
       </c>
       <c r="V17" t="n">
         <v>148.8034310544471</v>
       </c>
       <c r="W17" t="n">
-        <v>1.640832002384585</v>
+        <v>1.640831702829707</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1857,28 +1857,28 @@
         <v>149.2315091988515</v>
       </c>
       <c r="F18" t="n">
-        <v>40.80515877236533</v>
+        <v>40.80515876366328</v>
       </c>
       <c r="G18" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.633807585500657</v>
+        <v>-1.633807582748811</v>
       </c>
       <c r="I18" t="n">
-        <v>1.755321876409123</v>
+        <v>1.755321874802457</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04615451639689407</v>
+        <v>0.04615451639813603</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1324467621529498</v>
+        <v>-0.1324467621520965</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5535486110280939</v>
+        <v>0.5535486110287817</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.7179106075299361</v>
+        <v>-0.7179106075278269</v>
       </c>
       <c r="N18" t="n">
         <v>51.46511627906977</v>
@@ -1902,13 +1902,13 @@
         <v>2.079393484785871</v>
       </c>
       <c r="U18" t="n">
-        <v>-40.80515877236533</v>
+        <v>-40.80515876366328</v>
       </c>
       <c r="V18" t="n">
         <v>149.2315091988515</v>
       </c>
       <c r="W18" t="n">
-        <v>1.90810283395714</v>
+        <v>1.908102831958076</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1937,28 +1937,28 @@
         <v>144.7303855828553</v>
       </c>
       <c r="F19" t="n">
-        <v>45.76594319181903</v>
+        <v>45.76595194991106</v>
       </c>
       <c r="G19" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.973111441301719</v>
+        <v>-1.973113727519595</v>
       </c>
       <c r="I19" t="n">
-        <v>1.973111441301719</v>
+        <v>1.973113727519595</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.00991781955774094</v>
+        <v>-0.009917822177669681</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02496410164777567</v>
+        <v>0.02496410166987081</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6971652626309501</v>
+        <v>0.6971652619478166</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.7667586475227219</v>
+        <v>-0.7667586471878869</v>
       </c>
       <c r="N19" t="n">
         <v>52.26190476190476</v>
@@ -1982,13 +1982,13 @@
         <v>1.847981908313816</v>
       </c>
       <c r="U19" t="n">
-        <v>-45.76594319181903</v>
+        <v>-45.76595194991106</v>
       </c>
       <c r="V19" t="n">
         <v>144.7303855828553</v>
       </c>
       <c r="W19" t="n">
-        <v>2.10756760498262</v>
+        <v>2.107569672420149</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2017,28 +2017,28 @@
         <v>145.3494743757803</v>
       </c>
       <c r="F20" t="n">
-        <v>50.49389443704277</v>
+        <v>50.49389489080841</v>
       </c>
       <c r="G20" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.778254449087399</v>
+        <v>-2.778254570166535</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778254449087399</v>
+        <v>2.778254570166535</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1037745532238628</v>
+        <v>0.1037745532773737</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02379195353699557</v>
+        <v>-0.02379195354115579</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6245910722626972</v>
+        <v>0.6245910722560676</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.5909322713928802</v>
+        <v>-0.5909322712441433</v>
       </c>
       <c r="N20" t="n">
         <v>50.70833333333334</v>
@@ -2062,13 +2062,13 @@
         <v>1.59741078955099</v>
       </c>
       <c r="U20" t="n">
-        <v>-50.49389443704277</v>
+        <v>-50.49389489080841</v>
       </c>
       <c r="V20" t="n">
         <v>145.3494743757803</v>
       </c>
       <c r="W20" t="n">
-        <v>2.884369625623715</v>
+        <v>2.884369753915072</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2097,28 +2097,28 @@
         <v>299.8631259399092</v>
       </c>
       <c r="F21" t="n">
-        <v>-46.73466066549769</v>
+        <v>-46.73465053316863</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H21" t="n">
-        <v>1.073634712377596</v>
+        <v>1.073632751228566</v>
       </c>
       <c r="I21" t="n">
-        <v>1.176552930658437</v>
+        <v>1.176550771158134</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01103799892672847</v>
+        <v>0.01103800018975324</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02387079737818839</v>
+        <v>0.02387080046147696</v>
       </c>
       <c r="L21" t="n">
-        <v>1.060134531762901</v>
+        <v>1.060134536265774</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1075301283118899</v>
+        <v>-0.1075301272059472</v>
       </c>
       <c r="N21" t="n">
         <v>43.57142857142857</v>
@@ -2142,13 +2142,13 @@
         <v>1.711316514236927</v>
       </c>
       <c r="U21" t="n">
-        <v>46.73466066549769</v>
+        <v>46.73465053316863</v>
       </c>
       <c r="V21" t="n">
         <v>299.8631259399092</v>
       </c>
       <c r="W21" t="n">
-        <v>1.611658148977554</v>
+        <v>1.611656659240834</v>
       </c>
       <c r="X21" t="n">
         <v>300</v>
@@ -2177,28 +2177,28 @@
         <v>292.3622795108685</v>
       </c>
       <c r="F22" t="n">
-        <v>-42.6118807709008</v>
+        <v>-42.61188082546585</v>
       </c>
       <c r="G22" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5344772610888433</v>
+        <v>0.5344772780293567</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9456025422296599</v>
+        <v>0.9456025610822806</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08969140952680094</v>
+        <v>-0.08969140953406589</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2855689919420475</v>
+        <v>0.2855689919364901</v>
       </c>
       <c r="L22" t="n">
-        <v>1.047251823357065</v>
+        <v>1.04725182333284</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.158238306856096</v>
+        <v>-0.1582383068866334</v>
       </c>
       <c r="N22" t="n">
         <v>40.46938775510204</v>
@@ -2222,13 +2222,13 @@
         <v>1.844385743152118</v>
       </c>
       <c r="U22" t="n">
-        <v>42.6118807709008</v>
+        <v>42.61188082546585</v>
       </c>
       <c r="V22" t="n">
         <v>292.3622795108685</v>
       </c>
       <c r="W22" t="n">
-        <v>1.492370782260912</v>
+        <v>1.492370796733498</v>
       </c>
       <c r="X22" t="n">
         <v>300</v>
@@ -2257,28 +2257,28 @@
         <v>298.8242291346991</v>
       </c>
       <c r="F23" t="n">
-        <v>-37.85455561413609</v>
+        <v>-37.85455661615558</v>
       </c>
       <c r="G23" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1693671756234787</v>
+        <v>-0.1693665216806007</v>
       </c>
       <c r="I23" t="n">
-        <v>1.50967969119979</v>
+        <v>1.509679637067742</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1725547382078128</v>
+        <v>-0.1725547383347631</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06485201909581068</v>
+        <v>0.06485201914510179</v>
       </c>
       <c r="L23" t="n">
-        <v>1.118513369790034</v>
+        <v>1.118513369269835</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02540960138193247</v>
+        <v>-0.02540960076721366</v>
       </c>
       <c r="N23" t="n">
         <v>41.75</v>
@@ -2302,13 +2302,13 @@
         <v>2.06056410252249</v>
       </c>
       <c r="U23" t="n">
-        <v>37.85455561413609</v>
+        <v>37.85455661615558</v>
       </c>
       <c r="V23" t="n">
         <v>298.8242291346991</v>
       </c>
       <c r="W23" t="n">
-        <v>1.860413006460721</v>
+        <v>1.860413196135717</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2337,28 +2337,28 @@
         <v>302.4011410270368</v>
       </c>
       <c r="F24" t="n">
-        <v>-33.5247897078559</v>
+        <v>-33.52478970505955</v>
       </c>
       <c r="G24" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.5409093726367439</v>
+        <v>-0.5409093726894314</v>
       </c>
       <c r="I24" t="n">
-        <v>0.977663998269697</v>
+        <v>0.9776639973508884</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1184637718499801</v>
+        <v>-0.1184637718490026</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1955541110368697</v>
+        <v>0.1955541110380914</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5610670436380634</v>
+        <v>0.5610670436386243</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.00425742750300072</v>
+        <v>-0.004257427502665182</v>
       </c>
       <c r="N24" t="n">
         <v>46.29090909090909</v>
@@ -2382,13 +2382,13 @@
         <v>1.846499892116088</v>
       </c>
       <c r="U24" t="n">
-        <v>33.5247897078559</v>
+        <v>33.52478970505955</v>
       </c>
       <c r="V24" t="n">
         <v>302.4011410270368</v>
       </c>
       <c r="W24" t="n">
-        <v>1.223668219092592</v>
+        <v>1.223668217998893</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2417,28 +2417,28 @@
         <v>302.2904615605069</v>
       </c>
       <c r="F25" t="n">
-        <v>-29.39208890076991</v>
+        <v>-29.39208890197296</v>
       </c>
       <c r="G25" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9821331372668369</v>
+        <v>-0.9821331372246294</v>
       </c>
       <c r="I25" t="n">
-        <v>1.173534524500073</v>
+        <v>1.173534524687698</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1000948824295979</v>
+        <v>-0.1000948824299261</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0475897846601091</v>
+        <v>0.04758978465957125</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4242162909978986</v>
+        <v>0.4242162909974802</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03855680660526137</v>
+        <v>0.03855680660549043</v>
       </c>
       <c r="N25" t="n">
         <v>47.74117647058824</v>
@@ -2462,13 +2462,13 @@
         <v>1.926281145000283</v>
       </c>
       <c r="U25" t="n">
-        <v>29.39208890076991</v>
+        <v>29.39208890197296</v>
       </c>
       <c r="V25" t="n">
         <v>302.2904615605069</v>
       </c>
       <c r="W25" t="n">
-        <v>1.366738619252521</v>
+        <v>1.366738619539262</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2497,28 +2497,28 @@
         <v>303.985405487632</v>
       </c>
       <c r="F26" t="n">
-        <v>-23.76918050657083</v>
+        <v>-23.7691806120417</v>
       </c>
       <c r="G26" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9014832128545142</v>
+        <v>-0.9014832039063847</v>
       </c>
       <c r="I26" t="n">
-        <v>1.208870663734281</v>
+        <v>1.208870691446115</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02505415360212614</v>
+        <v>0.02505415356184739</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.07716879988400635</v>
+        <v>-0.07716879993534292</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4072626119719897</v>
+        <v>0.4072626119479177</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1035855333035614</v>
+        <v>-0.1035855332905041</v>
       </c>
       <c r="N26" t="n">
         <v>47.75</v>
@@ -2542,13 +2542,13 @@
         <v>2.078649046831291</v>
       </c>
       <c r="U26" t="n">
-        <v>23.76918050657083</v>
+        <v>23.7691806120417</v>
       </c>
       <c r="V26" t="n">
         <v>303.985405487632</v>
       </c>
       <c r="W26" t="n">
-        <v>1.349108900639675</v>
+        <v>1.349108943788678</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2577,28 +2577,28 @@
         <v>305.3585185460998</v>
       </c>
       <c r="F27" t="n">
-        <v>-19.18688868532352</v>
+        <v>-19.18688868392046</v>
       </c>
       <c r="G27" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9816847153148363</v>
+        <v>-0.9816847154493112</v>
       </c>
       <c r="I27" t="n">
-        <v>1.122923128654071</v>
+        <v>1.122923128236723</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02477892429784935</v>
+        <v>-0.0247789242974061</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.08020104122162505</v>
+        <v>-0.08020104122077246</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2768880591302979</v>
+        <v>0.2768880591302187</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.07578330776097932</v>
+        <v>-0.07578330776140141</v>
       </c>
       <c r="N27" t="n">
         <v>49.22727272727273</v>
@@ -2622,13 +2622,13 @@
         <v>2.189598641841068</v>
       </c>
       <c r="U27" t="n">
-        <v>19.18688868532352</v>
+        <v>19.18688868392046</v>
       </c>
       <c r="V27" t="n">
         <v>305.3585185460998</v>
       </c>
       <c r="W27" t="n">
-        <v>1.308427153654198</v>
+        <v>1.308427153127471</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2657,28 +2657,28 @@
         <v>300.9310220139467</v>
       </c>
       <c r="F28" t="n">
-        <v>-14.46988637644139</v>
+        <v>-14.46988659034205</v>
       </c>
       <c r="G28" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.9345043409217686</v>
+        <v>-0.9345042816553747</v>
       </c>
       <c r="I28" t="n">
-        <v>1.170782224686117</v>
+        <v>1.170782284700182</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.009752817972932088</v>
+        <v>-0.009752818035137929</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.116497553364281</v>
+        <v>-0.1164975535052783</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3194717071592459</v>
+        <v>0.3194717072902865</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0666304963681566</v>
+        <v>-0.06663049628299322</v>
       </c>
       <c r="N28" t="n">
         <v>48.61224489795919</v>
@@ -2702,13 +2702,13 @@
         <v>2.179217656180883</v>
       </c>
       <c r="U28" t="n">
-        <v>14.46988637644139</v>
+        <v>14.46988659034205</v>
       </c>
       <c r="V28" t="n">
         <v>300.9310220139467</v>
       </c>
       <c r="W28" t="n">
-        <v>1.373048742699454</v>
+        <v>1.373048809366347</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2737,28 +2737,28 @@
         <v>296.9366035232122</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.16440622924253</v>
+        <v>-9.16440694856257</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.752040126999184</v>
+        <v>-0.7520399675010355</v>
       </c>
       <c r="I29" t="n">
-        <v>1.496511956007862</v>
+        <v>1.496512116192601</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02563960679698596</v>
+        <v>-0.02563960704133247</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05890013677621077</v>
+        <v>-0.05890013775419689</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3382428528254976</v>
+        <v>0.3382428533018493</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0854957568815031</v>
+        <v>-0.08549575669650637</v>
       </c>
       <c r="N29" t="n">
         <v>48.60714285714285</v>
@@ -2782,13 +2782,13 @@
         <v>2.276214623446605</v>
       </c>
       <c r="U29" t="n">
-        <v>9.16440622924253</v>
+        <v>9.16440694856257</v>
       </c>
       <c r="V29" t="n">
         <v>296.9366035232122</v>
       </c>
       <c r="W29" t="n">
-        <v>1.69462885857673</v>
+        <v>1.694629164340179</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2817,28 +2817,28 @@
         <v>299.3799661220074</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.498809661507472</v>
+        <v>-2.498809659050392</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H30" t="n">
-        <v>1.66330621415776</v>
+        <v>1.663306213906544</v>
       </c>
       <c r="I30" t="n">
-        <v>2.627411293880053</v>
+        <v>2.62741129307655</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01782628523007439</v>
+        <v>-0.01782628523059027</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.05834232374100688</v>
+        <v>-0.05834232373936883</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2685680193613834</v>
+        <v>0.2685680193611741</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04595448772623911</v>
+        <v>-0.04595448772687784</v>
       </c>
       <c r="N30" t="n">
         <v>47.15116279069768</v>
@@ -2862,13 +2862,13 @@
         <v>2.256357955829004</v>
       </c>
       <c r="U30" t="n">
-        <v>2.498809661507472</v>
+        <v>2.498809659050392</v>
       </c>
       <c r="V30" t="n">
         <v>299.3799661220074</v>
       </c>
       <c r="W30" t="n">
-        <v>2.950905443552919</v>
+        <v>2.950905442946695</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2897,28 +2897,28 @@
         <v>301.0907479275377</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.302349056004339</v>
+        <v>-0.3023489213485746</v>
       </c>
       <c r="G31" t="n">
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.802349056004339</v>
+        <v>-1.802348921348575</v>
       </c>
       <c r="I31" t="n">
-        <v>2.131563419857636</v>
+        <v>2.131563316798665</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005162550675081552</v>
+        <v>0.005162550658796202</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04575706189189135</v>
+        <v>-0.04575706191808569</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3272770588606098</v>
+        <v>0.3272770588195649</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.1279268014237626</v>
+        <v>-0.1279268014383094</v>
       </c>
       <c r="N31" t="n">
         <v>47.15151515151515</v>
@@ -2942,13 +2942,13 @@
         <v>2.275659769878143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.302349056004339</v>
+        <v>0.3023489213485746</v>
       </c>
       <c r="V31" t="n">
         <v>301.0907479275377</v>
       </c>
       <c r="W31" t="n">
-        <v>2.325004134435751</v>
+        <v>2.325004045626487</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2977,28 +2977,28 @@
         <v>321.3895134489188</v>
       </c>
       <c r="F32" t="n">
-        <v>3.650105940809409</v>
+        <v>3.650105460844875</v>
       </c>
       <c r="G32" t="n">
-        <v>6.883590571785827</v>
+        <v>6.8835898764683</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.233484630976418</v>
+        <v>-3.233484415623425</v>
       </c>
       <c r="I32" t="n">
-        <v>3.233484630976418</v>
+        <v>3.233484415623425</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01710593389327917</v>
+        <v>-0.01710593417697963</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.08516158613242358</v>
+        <v>-0.08516158619685192</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2579296407627634</v>
+        <v>0.2579296407480381</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2204457469000193</v>
+        <v>0.2204457470816144</v>
       </c>
       <c r="N32" t="n">
         <v>42.87096774193548</v>
@@ -3022,13 +3022,13 @@
         <v>2.186394076699064</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.650105940809409</v>
+        <v>-3.650105460844875</v>
       </c>
       <c r="V32" t="n">
         <v>321.3895134489188</v>
       </c>
       <c r="W32" t="n">
-        <v>3.385503603800773</v>
+        <v>3.385503427522914</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3057,28 +3057,28 @@
         <v>320.6308088290701</v>
       </c>
       <c r="F33" t="n">
-        <v>9.802587428903943</v>
+        <v>9.802587427882424</v>
       </c>
       <c r="G33" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.491640169317343</v>
+        <v>-2.491640169329616</v>
       </c>
       <c r="I33" t="n">
-        <v>2.491640169317343</v>
+        <v>2.491640169329616</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01654298331249891</v>
+        <v>0.01654298331237669</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01902060594575303</v>
+        <v>-0.01902060594573953</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2344668490228537</v>
+        <v>0.2344668490241652</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1466695738116973</v>
+        <v>0.146669573811693</v>
       </c>
       <c r="N33" t="n">
         <v>58.1</v>
@@ -3102,13 +3102,13 @@
         <v>2.17090177786728</v>
       </c>
       <c r="U33" t="n">
-        <v>-9.802587428903943</v>
+        <v>-9.802587427882424</v>
       </c>
       <c r="V33" t="n">
         <v>320.6308088290701</v>
       </c>
       <c r="W33" t="n">
-        <v>2.569005904867984</v>
+        <v>2.569005905027097</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3137,28 +3137,28 @@
         <v>319.1020770889223</v>
       </c>
       <c r="F34" t="n">
-        <v>14.8432289188031</v>
+        <v>14.84323574868237</v>
       </c>
       <c r="G34" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.163858847291113</v>
+        <v>-2.163864166293791</v>
       </c>
       <c r="I34" t="n">
-        <v>2.163858847291113</v>
+        <v>2.163864166293791</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04953157040746024</v>
+        <v>-0.04953157581816778</v>
       </c>
       <c r="K34" t="n">
-        <v>0.08587821975793143</v>
+        <v>0.0858782170553636</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3031581926069851</v>
+        <v>0.3031581991457765</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08510691813479516</v>
+        <v>0.0851069188418635</v>
       </c>
       <c r="N34" t="n">
         <v>51.78260869565217</v>
@@ -3182,13 +3182,13 @@
         <v>2.049029298766869</v>
       </c>
       <c r="U34" t="n">
-        <v>-14.8432289188031</v>
+        <v>-14.84323574868237</v>
       </c>
       <c r="V34" t="n">
         <v>319.1020770889223</v>
       </c>
       <c r="W34" t="n">
-        <v>2.276753249899795</v>
+        <v>2.276757923560986</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3217,28 +3217,28 @@
         <v>243.6736931398528</v>
       </c>
       <c r="F35" t="n">
-        <v>26.19917785483332</v>
+        <v>26.19917785467214</v>
       </c>
       <c r="G35" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297603</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.646003979552272</v>
+        <v>-1.646003978303887</v>
       </c>
       <c r="I35" t="n">
-        <v>1.646003979552272</v>
+        <v>1.646003978303887</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07016382350336889</v>
+        <v>0.07016382350218466</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2634835514717366</v>
+        <v>0.2634835514721298</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6050972424885824</v>
+        <v>0.6050972424885028</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1164938098029686</v>
+        <v>0.1164938098017399</v>
       </c>
       <c r="N35" t="n">
         <v>32</v>
@@ -3262,13 +3262,13 @@
         <v>1.852410390137241</v>
       </c>
       <c r="U35" t="n">
-        <v>-26.19917785483332</v>
+        <v>-26.19917785467214</v>
       </c>
       <c r="V35" t="n">
         <v>243.6736931398528</v>
       </c>
       <c r="W35" t="n">
-        <v>1.703942524110257</v>
+        <v>1.703942522931514</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3297,28 +3297,28 @@
         <v>293.7806631466954</v>
       </c>
       <c r="F36" t="n">
-        <v>30.00944015288708</v>
+        <v>30.00944015130566</v>
       </c>
       <c r="G36" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.623331570257689</v>
+        <v>-2.623331570239952</v>
       </c>
       <c r="I36" t="n">
-        <v>2.623331570257689</v>
+        <v>2.623331570239952</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05222707736066023</v>
+        <v>0.05222707736060102</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07600434856966463</v>
+        <v>0.07600434856881624</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3905116015974908</v>
+        <v>0.3905116015977807</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2003770910112002</v>
+        <v>0.2003770910106606</v>
       </c>
       <c r="N36" t="n">
         <v>45.91666666666666</v>
@@ -3342,13 +3342,13 @@
         <v>1.802711098594291</v>
       </c>
       <c r="U36" t="n">
-        <v>-30.00944015288708</v>
+        <v>-30.00944015130566</v>
       </c>
       <c r="V36" t="n">
         <v>293.7806631466954</v>
       </c>
       <c r="W36" t="n">
-        <v>2.778971216591376</v>
+        <v>2.77897121667397</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3377,28 +3377,28 @@
         <v>301.5682123779292</v>
       </c>
       <c r="F37" t="n">
-        <v>34.6801460717834</v>
+        <v>34.6801443923591</v>
       </c>
       <c r="G37" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.01276875439684</v>
+        <v>-3.012768837407677</v>
       </c>
       <c r="I37" t="n">
-        <v>3.01276875439684</v>
+        <v>3.012768837407677</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07305823562772465</v>
+        <v>0.07305823530084908</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08578236563929036</v>
+        <v>0.08578236483066642</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5743994243242682</v>
+        <v>0.5743994246523879</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3167167634039777</v>
+        <v>0.3167167627107631</v>
       </c>
       <c r="N37" t="n">
         <v>48.29411764705883</v>
@@ -3422,13 +3422,13 @@
         <v>1.817764885522524</v>
       </c>
       <c r="U37" t="n">
-        <v>-34.6801460717834</v>
+        <v>-34.6801443923591</v>
       </c>
       <c r="V37" t="n">
         <v>301.5682123779292</v>
       </c>
       <c r="W37" t="n">
-        <v>3.197209121687566</v>
+        <v>3.197209315358704</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3457,28 +3457,28 @@
         <v>290.1313954238893</v>
       </c>
       <c r="F38" t="n">
-        <v>39.71638472372251</v>
+        <v>39.71638471203794</v>
       </c>
       <c r="G38" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.722581634143482</v>
+        <v>-2.722581634374143</v>
       </c>
       <c r="I38" t="n">
-        <v>3.004199259249573</v>
+        <v>3.004199259795164</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.06387657180613827</v>
+        <v>-0.06387657180635919</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1774641716177423</v>
+        <v>0.1774641716080523</v>
       </c>
       <c r="L38" t="n">
-        <v>0.643668432769345</v>
+        <v>0.6436684327690231</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006029774927169301</v>
+        <v>0.006029774924456666</v>
       </c>
       <c r="N38" t="n">
         <v>47.21875</v>
@@ -3502,13 +3502,13 @@
         <v>1.967062945686488</v>
       </c>
       <c r="U38" t="n">
-        <v>-39.71638472372251</v>
+        <v>-39.71638471203794</v>
       </c>
       <c r="V38" t="n">
         <v>290.1313954238893</v>
       </c>
       <c r="W38" t="n">
-        <v>3.213010450035687</v>
+        <v>3.213010450704982</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3537,28 +3537,28 @@
         <v>288.2565470529282</v>
       </c>
       <c r="F39" t="n">
-        <v>44.56563032289348</v>
+        <v>44.56564055431054</v>
       </c>
       <c r="G39" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.173424310227273</v>
+        <v>-3.173425123120111</v>
       </c>
       <c r="I39" t="n">
-        <v>3.195257993261782</v>
+        <v>3.195258723737656</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.06387064076125219</v>
+        <v>-0.06387064225742459</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1074347361689128</v>
+        <v>0.1074347401900888</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8125679734701472</v>
+        <v>0.8125679695361554</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2362004972074709</v>
+        <v>0.2362004979523547</v>
       </c>
       <c r="N39" t="n">
         <v>45.24561403508772</v>
@@ -3582,13 +3582,13 @@
         <v>1.89077612943039</v>
       </c>
       <c r="U39" t="n">
-        <v>-44.56563032289348</v>
+        <v>-44.56564055431054</v>
       </c>
       <c r="V39" t="n">
         <v>288.2565470529282</v>
       </c>
       <c r="W39" t="n">
-        <v>3.389731080530602</v>
+        <v>3.389731465529478</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3617,28 +3617,28 @@
         <v>290.1140100117756</v>
       </c>
       <c r="F40" t="n">
-        <v>49.83679069669007</v>
+        <v>49.83679135145116</v>
       </c>
       <c r="G40" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.435358189440094</v>
+        <v>-3.435358109523782</v>
       </c>
       <c r="I40" t="n">
-        <v>3.435358189440094</v>
+        <v>3.435358109523782</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08732517975003681</v>
+        <v>0.08732517962914772</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0796129040383628</v>
+        <v>0.07961290405861966</v>
       </c>
       <c r="L40" t="n">
-        <v>1.046227644708757</v>
+        <v>1.046227644642849</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.09452345214126226</v>
+        <v>-0.09452345187581992</v>
       </c>
       <c r="N40" t="n">
         <v>51.08333333333334</v>
@@ -3662,13 +3662,13 @@
         <v>1.889671318274059</v>
       </c>
       <c r="U40" t="n">
-        <v>-49.83679069669007</v>
+        <v>-49.83679135145116</v>
       </c>
       <c r="V40" t="n">
         <v>290.1140100117756</v>
       </c>
       <c r="W40" t="n">
-        <v>3.56221795028053</v>
+        <v>3.562217889945002</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3697,28 +3697,28 @@
         <v>423.9034918766989</v>
       </c>
       <c r="F41" t="n">
-        <v>-46.30450882850278</v>
+        <v>-46.30450804784254</v>
       </c>
       <c r="G41" t="n">
-        <v>-47.80829537787529</v>
+        <v>-47.8082832843972</v>
       </c>
       <c r="H41" t="n">
-        <v>1.503786549372512</v>
+        <v>1.503775236554661</v>
       </c>
       <c r="I41" t="n">
-        <v>1.503786549372512</v>
+        <v>1.503775236554661</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.4511142670679467</v>
+        <v>-0.4511142709692823</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05718359343323865</v>
+        <v>-0.05718360563041191</v>
       </c>
       <c r="L41" t="n">
-        <v>1.068102653063603</v>
+        <v>1.068102665922123</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3129237495341323</v>
+        <v>-0.312923767930396</v>
       </c>
       <c r="N41" t="n">
         <v>18.58823529411765</v>
@@ -3742,13 +3742,13 @@
         <v>2.034368779382819</v>
       </c>
       <c r="U41" t="n">
-        <v>46.30450882850278</v>
+        <v>46.30450804784254</v>
       </c>
       <c r="V41" t="n">
         <v>423.9034918766989</v>
       </c>
       <c r="W41" t="n">
-        <v>1.888112674223101</v>
+        <v>1.888099108446148</v>
       </c>
       <c r="X41" t="n">
         <v>450</v>
@@ -3777,28 +3777,28 @@
         <v>418.1107098902114</v>
       </c>
       <c r="F42" t="n">
-        <v>-42.32749300359043</v>
+        <v>-42.32749300074489</v>
       </c>
       <c r="G42" t="n">
-        <v>-43.14635803198964</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8188650283992213</v>
+        <v>0.8188651027503061</v>
       </c>
       <c r="I42" t="n">
-        <v>1.053571613744179</v>
+        <v>1.053571687559138</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.7021802864117898</v>
+        <v>-0.7021802863455278</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.5477255114045495</v>
+        <v>-0.5477255113512673</v>
       </c>
       <c r="L42" t="n">
-        <v>1.254854574482862</v>
+        <v>1.25485457439602</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1116247403538186</v>
+        <v>-0.1116247401032965</v>
       </c>
       <c r="N42" t="n">
         <v>24.73333333333333</v>
@@ -3822,13 +3822,13 @@
         <v>2.328360796557079</v>
       </c>
       <c r="U42" t="n">
-        <v>42.32749300359043</v>
+        <v>42.32749300074489</v>
       </c>
       <c r="V42" t="n">
         <v>418.1107098902114</v>
       </c>
       <c r="W42" t="n">
-        <v>1.156341380003073</v>
+        <v>1.156341471389421</v>
       </c>
       <c r="X42" t="n">
         <v>450</v>
@@ -3857,28 +3857,28 @@
         <v>402.4206033553338</v>
       </c>
       <c r="F43" t="n">
-        <v>-36.86583598085687</v>
+        <v>-36.86583672270591</v>
       </c>
       <c r="G43" t="n">
-        <v>-37.68518843851261</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8193524576557389</v>
+        <v>0.8193533717690613</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9971026409704332</v>
+        <v>0.9971032191905943</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.460475228574541</v>
+        <v>-0.4604752281097418</v>
       </c>
       <c r="K43" t="n">
-        <v>0.007189919968394065</v>
+        <v>0.007189920809840562</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9298950516117743</v>
+        <v>0.929895050397801</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.7344182874396599</v>
+        <v>-0.734418285128396</v>
       </c>
       <c r="N43" t="n">
         <v>48.73333333333333</v>
@@ -3902,13 +3902,13 @@
         <v>2.036448835021173</v>
       </c>
       <c r="U43" t="n">
-        <v>36.86583598085687</v>
+        <v>36.86583672270591</v>
       </c>
       <c r="V43" t="n">
         <v>402.4206033553338</v>
       </c>
       <c r="W43" t="n">
-        <v>1.347703493074752</v>
+        <v>1.347703540122329</v>
       </c>
       <c r="X43" t="n">
         <v>450</v>
@@ -3937,28 +3937,28 @@
         <v>401.8706011247426</v>
       </c>
       <c r="F44" t="n">
-        <v>-32.93694272753812</v>
+        <v>-32.936942725865</v>
       </c>
       <c r="G44" t="n">
-        <v>-32.98388033521916</v>
+        <v>-32.98388033237012</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04693760768104573</v>
+        <v>0.04693760650511458</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9484391764121278</v>
+        <v>0.9484391749976128</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1147528959897642</v>
+        <v>0.1147528959879544</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.3818858001544108</v>
+        <v>-0.3818858001566824</v>
       </c>
       <c r="L44" t="n">
-        <v>1.106527932948043</v>
+        <v>1.106527932951274</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04363387041349337</v>
+        <v>0.04363387041183793</v>
       </c>
       <c r="N44" t="n">
         <v>57.7</v>
@@ -3982,13 +3982,13 @@
         <v>2.081362075240716</v>
       </c>
       <c r="U44" t="n">
-        <v>32.93694272753812</v>
+        <v>32.936942725865</v>
       </c>
       <c r="V44" t="n">
         <v>401.8706011247426</v>
       </c>
       <c r="W44" t="n">
-        <v>1.215513860774876</v>
+        <v>1.215513859766303</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4017,28 +4017,28 @@
         <v>425.4471132814423</v>
       </c>
       <c r="F45" t="n">
-        <v>-28.99447302375449</v>
+        <v>-28.99447302407452</v>
       </c>
       <c r="G45" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474833</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.584517260251423</v>
+        <v>-0.5845172593261866</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7565459314825662</v>
+        <v>0.7565459318277276</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.06652219901275762</v>
+        <v>-0.0665221990118867</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.3383802768675884</v>
+        <v>-0.3383802768664451</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7583102890704005</v>
+        <v>0.7583102890690324</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1267838325243008</v>
+        <v>0.1267838325255747</v>
       </c>
       <c r="N45" t="n">
         <v>40.11904761904762</v>
@@ -4062,13 +4062,13 @@
         <v>2.129732332246996</v>
       </c>
       <c r="U45" t="n">
-        <v>28.99447302375449</v>
+        <v>28.99447302407452</v>
       </c>
       <c r="V45" t="n">
         <v>425.4471132814423</v>
       </c>
       <c r="W45" t="n">
-        <v>1.082862846302709</v>
+        <v>1.082862846461815</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4097,28 +4097,28 @@
         <v>427.0604966713295</v>
       </c>
       <c r="F46" t="n">
-        <v>-23.47765622650919</v>
+        <v>-23.47765625466107</v>
       </c>
       <c r="G46" t="n">
-        <v>-22.86769729371632</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6099589327928787</v>
+        <v>-0.6099588465257517</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7965937364361493</v>
+        <v>0.796593797982124</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.2044807368318721</v>
+        <v>-0.2044807367234801</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.06660481489412071</v>
+        <v>-0.06660481475479306</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4742104615848532</v>
+        <v>0.4742104614759949</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1946272069098607</v>
+        <v>0.1946272069995958</v>
       </c>
       <c r="N46" t="n">
         <v>37.86666666666667</v>
@@ -4142,13 +4142,13 @@
         <v>2.235790341786757</v>
       </c>
       <c r="U46" t="n">
-        <v>23.47765622650919</v>
+        <v>23.47765625466107</v>
       </c>
       <c r="V46" t="n">
         <v>427.0604966713295</v>
       </c>
       <c r="W46" t="n">
-        <v>1.065616484357816</v>
+        <v>1.065616497740154</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4177,28 +4177,28 @@
         <v>427.1580915949783</v>
       </c>
       <c r="F47" t="n">
-        <v>-18.6577285970256</v>
+        <v>-18.65772859665952</v>
       </c>
       <c r="G47" t="n">
-        <v>-18.20520397000869</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.4525246270169151</v>
+        <v>-0.4525246281883799</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8220042732042513</v>
+        <v>0.8220042724655179</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.07056069591699334</v>
+        <v>-0.07056069591828526</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.04367651596343998</v>
+        <v>-0.04367651596590068</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3941912068725369</v>
+        <v>0.394191206873808</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05414842000659739</v>
+        <v>0.05414842000611803</v>
       </c>
       <c r="N47" t="n">
         <v>37.86666666666667</v>
@@ -4222,13 +4222,13 @@
         <v>2.227681020651787</v>
       </c>
       <c r="U47" t="n">
-        <v>18.6577285970256</v>
+        <v>18.65772859665952</v>
       </c>
       <c r="V47" t="n">
         <v>427.1580915949783</v>
       </c>
       <c r="W47" t="n">
-        <v>1.289856714046285</v>
+        <v>1.289856713774049</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4257,28 +4257,28 @@
         <v>428.0713470008295</v>
       </c>
       <c r="F48" t="n">
-        <v>-13.92569096851837</v>
+        <v>-13.92569101856626</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.390308932998743</v>
+        <v>-0.3903087098795872</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8481121026387619</v>
+        <v>0.848112208780164</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.03590357070060177</v>
+        <v>-0.03590357050669418</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.009225738092048632</v>
+        <v>-0.00922573765557773</v>
       </c>
       <c r="L48" t="n">
-        <v>0.306690115996342</v>
+        <v>0.306690115780643</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04827421237767822</v>
+        <v>0.04827421240744923</v>
       </c>
       <c r="N48" t="n">
         <v>36.70454545454545</v>
@@ -4302,13 +4302,13 @@
         <v>2.153817179249649</v>
       </c>
       <c r="U48" t="n">
-        <v>13.92569096851837</v>
+        <v>13.92569101856626</v>
       </c>
       <c r="V48" t="n">
         <v>428.0713470008295</v>
       </c>
       <c r="W48" t="n">
-        <v>1.316210847516482</v>
+        <v>1.316210900352212</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4337,28 +4337,28 @@
         <v>421.1335139877308</v>
       </c>
       <c r="F49" t="n">
-        <v>-8.418269093394843</v>
+        <v>-8.418269299528502</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.412366102243347</v>
+        <v>-8.412366981061535</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.005902991151496555</v>
+        <v>-0.005902318466967391</v>
       </c>
       <c r="I49" t="n">
-        <v>1.534449143827725</v>
+        <v>1.534449524783851</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03875731564265792</v>
+        <v>0.03875731612694843</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04617348129958166</v>
+        <v>0.04617348325233542</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2006715866783621</v>
+        <v>0.2006715874692066</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2550965799891541</v>
+        <v>0.2550965798023132</v>
       </c>
       <c r="N49" t="n">
         <v>39.51219512195122</v>
@@ -4382,13 +4382,13 @@
         <v>2.136151852942016</v>
       </c>
       <c r="U49" t="n">
-        <v>8.418269093394843</v>
+        <v>8.418269299528502</v>
       </c>
       <c r="V49" t="n">
         <v>421.1335139877308</v>
       </c>
       <c r="W49" t="n">
-        <v>1.913501768016642</v>
+        <v>1.913502080090393</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4417,28 +4417,28 @@
         <v>420.7977224603324</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.701150697933185</v>
+        <v>-2.70115069720904</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162115875665233</v>
+        <v>-4.162115872956935</v>
       </c>
       <c r="H50" t="n">
-        <v>1.460965177732048</v>
+        <v>1.460965175747895</v>
       </c>
       <c r="I50" t="n">
-        <v>2.838284974338695</v>
+        <v>2.838284972902537</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0201137409319262</v>
+        <v>0.02011374093316932</v>
       </c>
       <c r="K50" t="n">
-        <v>0.07305705433758768</v>
+        <v>0.07305705433386545</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1730287595387927</v>
+        <v>0.1730287595381692</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5948045588565261</v>
+        <v>0.5948045588573204</v>
       </c>
       <c r="N50" t="n">
         <v>40.5</v>
@@ -4462,13 +4462,13 @@
         <v>2.166166683487997</v>
       </c>
       <c r="U50" t="n">
-        <v>2.701150697933185</v>
+        <v>2.70115069720904</v>
       </c>
       <c r="V50" t="n">
         <v>420.7977224603324</v>
       </c>
       <c r="W50" t="n">
-        <v>3.051310437271328</v>
+        <v>3.051310435541402</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4497,28 +4497,28 @@
         <v>422.3561934642261</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8167678182003529</v>
+        <v>-0.8167677606150792</v>
       </c>
       <c r="G51" t="n">
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.316767818200353</v>
+        <v>-2.316767760615079</v>
       </c>
       <c r="I51" t="n">
-        <v>2.316767818200353</v>
+        <v>2.316767760615079</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02496758643927913</v>
+        <v>0.02496758648455218</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04389036786052204</v>
+        <v>0.04389036793472638</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1228996544491689</v>
+        <v>0.1228996544789926</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1321506292844195</v>
+        <v>0.1321506293106794</v>
       </c>
       <c r="N51" t="n">
         <v>42.92307692307692</v>
@@ -4542,13 +4542,13 @@
         <v>2.198571539989012</v>
       </c>
       <c r="U51" t="n">
-        <v>0.8167678182003529</v>
+        <v>0.8167677606150792</v>
       </c>
       <c r="V51" t="n">
         <v>422.3561934642261</v>
       </c>
       <c r="W51" t="n">
-        <v>2.424303772610604</v>
+        <v>2.424303714740312</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4577,28 +4577,28 @@
         <v>413.8493085463565</v>
       </c>
       <c r="F52" t="n">
-        <v>13.69729309551041</v>
+        <v>13.69729222519977</v>
       </c>
       <c r="G52" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.309794670583803</v>
+        <v>-3.309807689776398</v>
       </c>
       <c r="I52" t="n">
-        <v>3.309794670583803</v>
+        <v>3.309807689776398</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02933414502355891</v>
+        <v>0.02933416731108095</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.104579874770435</v>
+        <v>-0.1045798713531738</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1525497804822183</v>
+        <v>0.1525497862521958</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2151708074041931</v>
+        <v>0.2151708054341772</v>
       </c>
       <c r="N52" t="n">
         <v>13.25</v>
@@ -4622,13 +4622,13 @@
         <v>2.04666444492356</v>
       </c>
       <c r="U52" t="n">
-        <v>-13.69729309551041</v>
+        <v>-13.69729222519977</v>
       </c>
       <c r="V52" t="n">
         <v>413.8493085463565</v>
       </c>
       <c r="W52" t="n">
-        <v>3.393214083913385</v>
+        <v>3.393227446391164</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4657,28 +4657,28 @@
         <v>412.5357518370564</v>
       </c>
       <c r="F53" t="n">
-        <v>30.03862162258631</v>
+        <v>30.03862162258483</v>
       </c>
       <c r="G53" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.594150100558462</v>
+        <v>-2.594150098960777</v>
       </c>
       <c r="I53" t="n">
-        <v>2.594150100558462</v>
+        <v>2.594150098960777</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02832570867067779</v>
+        <v>0.02832570867060217</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0304879311615776</v>
+        <v>0.03048793116376863</v>
       </c>
       <c r="L53" t="n">
-        <v>0.407970390608626</v>
+        <v>0.4079703906084756</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7389727192103223</v>
+        <v>0.7389727192100651</v>
       </c>
       <c r="N53" t="n">
         <v>36.03571428571428</v>
@@ -4702,13 +4702,13 @@
         <v>1.821939063497431</v>
       </c>
       <c r="U53" t="n">
-        <v>-30.03862162258631</v>
+        <v>-30.03862162258483</v>
       </c>
       <c r="V53" t="n">
         <v>412.5357518370564</v>
       </c>
       <c r="W53" t="n">
-        <v>2.683835364165011</v>
+        <v>2.683835362570955</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4737,28 +4737,28 @@
         <v>414.7680698676714</v>
       </c>
       <c r="F54" t="n">
-        <v>34.93394794310998</v>
+        <v>34.93394749094049</v>
       </c>
       <c r="G54" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976678</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.758966883070261</v>
+        <v>-2.758965738826292</v>
       </c>
       <c r="I54" t="n">
-        <v>2.758966883070261</v>
+        <v>2.758965738826292</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04261336033737026</v>
+        <v>-0.04261335942550636</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.07832443617646002</v>
+        <v>-0.07832443391760081</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4579526575569872</v>
+        <v>0.4579526564767978</v>
       </c>
       <c r="M54" t="n">
-        <v>0.867584319760516</v>
+        <v>0.8675843202725185</v>
       </c>
       <c r="N54" t="n">
         <v>48.78260869565217</v>
@@ -4782,13 +4782,13 @@
         <v>1.950770523472594</v>
       </c>
       <c r="U54" t="n">
-        <v>-34.93394794310998</v>
+        <v>-34.93394749094049</v>
       </c>
       <c r="V54" t="n">
         <v>414.7680698676714</v>
       </c>
       <c r="W54" t="n">
-        <v>2.82812597120681</v>
+        <v>2.82812483462751</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4817,28 +4817,28 @@
         <v>419.3487406857736</v>
       </c>
       <c r="F55" t="n">
-        <v>39.38887145293509</v>
+        <v>39.38887145178771</v>
       </c>
       <c r="G55" t="n">
-        <v>42.43896635786599</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.050094904930905</v>
+        <v>-3.050094894624376</v>
       </c>
       <c r="I55" t="n">
-        <v>3.050094904930905</v>
+        <v>3.050094894624376</v>
       </c>
       <c r="J55" t="n">
-        <v>0.08090216886662369</v>
+        <v>0.08090216886513812</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2177883158061014</v>
+        <v>-0.2177883157838609</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6526801635760453</v>
+        <v>0.6526801635767598</v>
       </c>
       <c r="M55" t="n">
-        <v>1.172471174171097</v>
+        <v>1.172471174174303</v>
       </c>
       <c r="N55" t="n">
         <v>37.84615384615385</v>
@@ -4862,13 +4862,13 @@
         <v>2.082240054701239</v>
       </c>
       <c r="U55" t="n">
-        <v>-39.38887145293509</v>
+        <v>-39.38887145178771</v>
       </c>
       <c r="V55" t="n">
         <v>419.3487406857736</v>
       </c>
       <c r="W55" t="n">
-        <v>3.139785350736265</v>
+        <v>3.13978534008904</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4897,28 +4897,28 @@
         <v>415.0416031114632</v>
       </c>
       <c r="F56" t="n">
-        <v>44.14122973055168</v>
+        <v>44.14122742424453</v>
       </c>
       <c r="G56" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743065</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.597824902569072</v>
+        <v>-3.597838253186123</v>
       </c>
       <c r="I56" t="n">
-        <v>3.597824902569072</v>
+        <v>3.597838253186123</v>
       </c>
       <c r="J56" t="n">
-        <v>0.08394080033103694</v>
+        <v>0.08394081228621175</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.6335420519647347</v>
+        <v>-0.6335420628992394</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7745107131809814</v>
+        <v>0.7745107115988911</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9157946882526566</v>
+        <v>0.9157946739617642</v>
       </c>
       <c r="N56" t="n">
         <v>30.86363636363636</v>
@@ -4942,13 +4942,13 @@
         <v>2.104039468706664</v>
       </c>
       <c r="U56" t="n">
-        <v>-44.14122973055168</v>
+        <v>-44.14122742424453</v>
       </c>
       <c r="V56" t="n">
         <v>415.0416031114632</v>
       </c>
       <c r="W56" t="n">
-        <v>3.638751464056635</v>
+        <v>3.638765461466175</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4977,28 +4977,28 @@
         <v>422.8894123608085</v>
       </c>
       <c r="F57" t="n">
-        <v>49.38487821875459</v>
+        <v>49.38487831679006</v>
       </c>
       <c r="G57" t="n">
-        <v>53.27214888613017</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="H57" t="n">
-        <v>-3.887270667375576</v>
+        <v>-3.887271144184871</v>
       </c>
       <c r="I57" t="n">
-        <v>3.887270667375576</v>
+        <v>3.887271144184871</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.06968582745028587</v>
+        <v>-0.06968582714322021</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.2897675878022488</v>
+        <v>-0.2897675878730172</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5855777914843293</v>
+        <v>0.5855777909499478</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6744497169878066</v>
+        <v>0.6744497164571909</v>
       </c>
       <c r="N57" t="n">
         <v>47.70588235294117</v>
@@ -5022,13 +5022,13 @@
         <v>1.741941262594203</v>
       </c>
       <c r="U57" t="n">
-        <v>-49.38487821875459</v>
+        <v>-49.38487831679006</v>
       </c>
       <c r="V57" t="n">
         <v>422.8894123608085</v>
       </c>
       <c r="W57" t="n">
-        <v>3.955376510853034</v>
+        <v>3.955377018709324</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>

--- a/publication/analyses/outputs/rmse_z/gdptlab_bin_r-z_rmse-z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdptlab_bin_r-z_rmse-z.xlsx
@@ -577,28 +577,28 @@
         <v>139.44417591386</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.19600900541643</v>
+        <v>-47.19600900322206</v>
       </c>
       <c r="G2" t="n">
-        <v>-47.80828328439721</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6122742789807749</v>
+        <v>0.6122742785898029</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7770020480746271</v>
+        <v>0.7770020476120848</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2851232238869818</v>
+        <v>0.285123223887075</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.007901917075678267</v>
+        <v>-0.007901917075289476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6530153138179904</v>
+        <v>0.653015313818464</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4235472115163216</v>
+        <v>0.4235472115185385</v>
       </c>
       <c r="N2" t="n">
         <v>48.92</v>
@@ -622,13 +622,13 @@
         <v>1.265006527540566</v>
       </c>
       <c r="U2" t="n">
-        <v>47.19600900541643</v>
+        <v>47.19600900322206</v>
       </c>
       <c r="V2" t="n">
         <v>139.44417591386</v>
       </c>
       <c r="W2" t="n">
-        <v>1.061416948539414</v>
+        <v>1.061416948212883</v>
       </c>
       <c r="X2" t="n">
         <v>150</v>
@@ -657,28 +657,28 @@
         <v>137.2763962371615</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.28050367094194</v>
+        <v>-43.28050388710194</v>
       </c>
       <c r="G3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1341455674467402</v>
+        <v>-0.134145518598651</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5730456293996358</v>
+        <v>0.5730456316534528</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1318385295055042</v>
+        <v>0.1318385294518812</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1368590662306963</v>
+        <v>-0.1368590662752747</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7106657469800191</v>
+        <v>0.710665746971885</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4799748085886807</v>
+        <v>0.4799748085705818</v>
       </c>
       <c r="N3" t="n">
         <v>56.96153846153846</v>
@@ -702,13 +702,13 @@
         <v>1.454539829692751</v>
       </c>
       <c r="U3" t="n">
-        <v>43.28050367094194</v>
+        <v>43.28050388710194</v>
       </c>
       <c r="V3" t="n">
         <v>137.2763962371615</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7758478949860328</v>
+        <v>0.7758478652630769</v>
       </c>
       <c r="X3" t="n">
         <v>150</v>
@@ -737,28 +737,28 @@
         <v>160.478958559411</v>
       </c>
       <c r="F4" t="n">
-        <v>-38.0183502140303</v>
+        <v>-38.01835045727041</v>
       </c>
       <c r="G4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.333160119555323</v>
+        <v>-0.3331600435010373</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248616353035964</v>
+        <v>1.248616324727812</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09137573589501728</v>
+        <v>0.09137573586272651</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004156573852274393</v>
+        <v>0.004156573768459974</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8102812056399193</v>
+        <v>0.8102812056720665</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1404243366249247</v>
+        <v>0.1404243365335319</v>
       </c>
       <c r="N4" t="n">
         <v>58.95652173913044</v>
@@ -782,13 +782,13 @@
         <v>1.620247119176773</v>
       </c>
       <c r="U4" t="n">
-        <v>38.0183502140303</v>
+        <v>38.01835045727041</v>
       </c>
       <c r="V4" t="n">
         <v>160.478958559411</v>
       </c>
       <c r="W4" t="n">
-        <v>1.836635320695681</v>
+        <v>1.836635266029288</v>
       </c>
       <c r="X4" t="n">
         <v>150</v>
@@ -817,28 +817,28 @@
         <v>155.4528135385222</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.2236930715323</v>
+        <v>-33.22369460625181</v>
       </c>
       <c r="G5" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.239812739162179</v>
+        <v>-0.239812086599554</v>
       </c>
       <c r="I5" t="n">
-        <v>1.083676485745391</v>
+        <v>1.083675994511004</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1172347092204389</v>
+        <v>0.1172347095642444</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08660444733232553</v>
+        <v>-0.08660444676216709</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8879623028170868</v>
+        <v>0.8879623026693477</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01773663598861261</v>
+        <v>-0.01773663631533533</v>
       </c>
       <c r="N5" t="n">
         <v>52.63888888888889</v>
@@ -862,13 +862,13 @@
         <v>1.898778393468774</v>
       </c>
       <c r="U5" t="n">
-        <v>33.2236930715323</v>
+        <v>33.22369460625181</v>
       </c>
       <c r="V5" t="n">
         <v>155.4528135385222</v>
       </c>
       <c r="W5" t="n">
-        <v>1.525816568288392</v>
+        <v>1.525816300709026</v>
       </c>
       <c r="X5" t="n">
         <v>150</v>
@@ -897,28 +897,28 @@
         <v>149.6565242912739</v>
       </c>
       <c r="F6" t="n">
-        <v>-29.19008682104092</v>
+        <v>-29.19009209291501</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.7801310562925942</v>
+        <v>-0.7801296525065428</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8908753766263614</v>
+        <v>0.8908738819490639</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.009347007675137508</v>
+        <v>-0.009347007920810842</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006847725672937967</v>
+        <v>0.006847725298054127</v>
       </c>
       <c r="L6" t="n">
-        <v>0.635463998373712</v>
+        <v>0.6354639981631094</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01962232683768276</v>
+        <v>-0.01962232675736368</v>
       </c>
       <c r="N6" t="n">
         <v>49.03448275862069</v>
@@ -942,13 +942,13 @@
         <v>1.929891728428187</v>
       </c>
       <c r="U6" t="n">
-        <v>29.19008682104092</v>
+        <v>29.19009209291501</v>
       </c>
       <c r="V6" t="n">
         <v>149.6565242912739</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9673315934928995</v>
+        <v>0.9673303298763802</v>
       </c>
       <c r="X6" t="n">
         <v>150</v>
@@ -977,28 +977,28 @@
         <v>148.0800678413079</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.71050142744377</v>
+        <v>-23.71050136633223</v>
       </c>
       <c r="G7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8428040193084549</v>
+        <v>-0.8428040323275908</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8687900429414885</v>
+        <v>0.8687900545807862</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007114325847662423</v>
+        <v>-0.007114325837169608</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0085428156854699</v>
+        <v>-0.008542815671399735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3332238780791</v>
+        <v>0.3332238780694357</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05584317422404966</v>
+        <v>-0.0558431742272768</v>
       </c>
       <c r="N7" t="n">
         <v>48.6</v>
@@ -1022,13 +1022,13 @@
         <v>2.027027216249507</v>
       </c>
       <c r="U7" t="n">
-        <v>23.71050142744377</v>
+        <v>23.71050136633223</v>
       </c>
       <c r="V7" t="n">
         <v>148.0800678413079</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9616103891101175</v>
+        <v>0.9616103959879848</v>
       </c>
       <c r="X7" t="n">
         <v>150</v>
@@ -1057,28 +1057,28 @@
         <v>149.0794469846954</v>
       </c>
       <c r="F8" t="n">
-        <v>-19.1699596672272</v>
+        <v>-19.1699596646714</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.9647556987560592</v>
+        <v>-0.9647556992840891</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9647556987560592</v>
+        <v>0.9647556992840891</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02796851914800363</v>
+        <v>-0.02796851914756335</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01591524403516494</v>
+        <v>-0.01591524403432525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.298732150795827</v>
+        <v>0.2987321507954961</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.004926690598644999</v>
+        <v>-0.004926690599025576</v>
       </c>
       <c r="N8" t="n">
         <v>49.05263157894737</v>
@@ -1102,13 +1102,13 @@
         <v>2.16958293036635</v>
       </c>
       <c r="U8" t="n">
-        <v>19.1699596672272</v>
+        <v>19.1699596646714</v>
       </c>
       <c r="V8" t="n">
         <v>149.0794469846954</v>
       </c>
       <c r="W8" t="n">
-        <v>1.040362882128254</v>
+        <v>1.040362882392388</v>
       </c>
       <c r="X8" t="n">
         <v>150</v>
@@ -1137,28 +1137,28 @@
         <v>148.2136740123005</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.39091301461242</v>
+        <v>-14.39091305431939</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8555307059257494</v>
+        <v>-0.8555306925866429</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8555307059257494</v>
+        <v>0.8555306925866429</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.07893643685752967</v>
+        <v>-0.07893643686677194</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009631100799390897</v>
+        <v>0.009631100778589046</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2964987346423765</v>
+        <v>0.2964987346492013</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1078586921736092</v>
+        <v>-0.1078586921638787</v>
       </c>
       <c r="N9" t="n">
         <v>48.6</v>
@@ -1182,13 +1182,13 @@
         <v>2.18324638859347</v>
       </c>
       <c r="U9" t="n">
-        <v>14.39091301461242</v>
+        <v>14.39091305431939</v>
       </c>
       <c r="V9" t="n">
         <v>148.2136740123005</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9424239928239283</v>
+        <v>0.9424239853263748</v>
       </c>
       <c r="X9" t="n">
         <v>150</v>
@@ -1217,28 +1217,28 @@
         <v>155.8863700510839</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.792237027683267</v>
+        <v>-8.792236480801243</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3798700466217319</v>
+        <v>-0.3798703888901554</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7789439908889293</v>
+        <v>0.778943931597037</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01254837845014928</v>
+        <v>0.01254837843536304</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06787775017731974</v>
+        <v>0.06787775013077381</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2550662006348204</v>
+        <v>0.2550662003614186</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.07282924909751637</v>
+        <v>-0.07282924892036075</v>
       </c>
       <c r="N10" t="n">
         <v>45.95555555555556</v>
@@ -1262,13 +1262,13 @@
         <v>2.160769490456151</v>
       </c>
       <c r="U10" t="n">
-        <v>8.792237027683267</v>
+        <v>8.792236480801243</v>
       </c>
       <c r="V10" t="n">
         <v>155.8863700510839</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9503100296631735</v>
+        <v>0.9503100330558798</v>
       </c>
       <c r="X10" t="n">
         <v>150</v>
@@ -1297,28 +1297,28 @@
         <v>147.7003569229774</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.085588646171479</v>
+        <v>-2.085588648322519</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H11" t="n">
-        <v>2.076527226785457</v>
+        <v>2.076527227467747</v>
       </c>
       <c r="I11" t="n">
-        <v>2.923210708756944</v>
+        <v>2.923210708936978</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01058897554792198</v>
+        <v>0.01058897554810825</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02998528553160459</v>
+        <v>0.02998528553137414</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3090035911406088</v>
+        <v>0.3090035911408564</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3235339311922456</v>
+        <v>-0.3235339311925925</v>
       </c>
       <c r="N11" t="n">
         <v>49.92307692307692</v>
@@ -1342,13 +1342,13 @@
         <v>2.200808351560046</v>
       </c>
       <c r="U11" t="n">
-        <v>2.085588646171479</v>
+        <v>2.085588648322519</v>
       </c>
       <c r="V11" t="n">
         <v>147.7003569229774</v>
       </c>
       <c r="W11" t="n">
-        <v>3.102176078556169</v>
+        <v>3.102176078804364</v>
       </c>
       <c r="X11" t="n">
         <v>150</v>
@@ -1377,28 +1377,28 @@
         <v>143.6844127985758</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6323156693345687</v>
+        <v>-0.6323156185429136</v>
       </c>
       <c r="G12" t="n">
         <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.132315669334569</v>
+        <v>-2.132315618542914</v>
       </c>
       <c r="I12" t="n">
-        <v>2.183111077304228</v>
+        <v>2.183111034966126</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0274968220020613</v>
+        <v>-0.02749682200334818</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05218934778595496</v>
+        <v>0.05218934778354964</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2437786814969362</v>
+        <v>0.2437786814982516</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1390903481347434</v>
+        <v>0.1390903481371488</v>
       </c>
       <c r="N12" t="n">
         <v>49.38888888888889</v>
@@ -1422,13 +1422,13 @@
         <v>2.248816355665584</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6323156693345687</v>
+        <v>0.6323156185429136</v>
       </c>
       <c r="V12" t="n">
         <v>143.6844127985758</v>
       </c>
       <c r="W12" t="n">
-        <v>2.260290958758782</v>
+        <v>2.260290913126442</v>
       </c>
       <c r="X12" t="n">
         <v>150</v>
@@ -1457,28 +1457,28 @@
         <v>148.5324253274257</v>
       </c>
       <c r="F13" t="n">
-        <v>4.605805460225082</v>
+        <v>4.605806060373475</v>
       </c>
       <c r="G13" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.277784416243218</v>
+        <v>-2.27778451198254</v>
       </c>
       <c r="I13" t="n">
-        <v>2.277784416243218</v>
+        <v>2.27778451198254</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.09932564417428263</v>
+        <v>-0.09932564447944968</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1137966004021615</v>
+        <v>0.1137966004207935</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2880019109465717</v>
+        <v>0.288001910945508</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4109983979412766</v>
+        <v>-0.4109983979675173</v>
       </c>
       <c r="N13" t="n">
         <v>51</v>
@@ -1502,13 +1502,13 @@
         <v>2.155864441452001</v>
       </c>
       <c r="U13" t="n">
-        <v>-4.605805460225082</v>
+        <v>-4.605806060373475</v>
       </c>
       <c r="V13" t="n">
         <v>148.5324253274257</v>
       </c>
       <c r="W13" t="n">
-        <v>2.325888363167502</v>
+        <v>2.325888441386687</v>
       </c>
       <c r="X13" t="n">
         <v>150</v>
@@ -1537,28 +1537,28 @@
         <v>120.8308473713893</v>
       </c>
       <c r="F14" t="n">
-        <v>15.38923714772245</v>
+        <v>15.38923714566914</v>
       </c>
       <c r="G14" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.617862767253715</v>
+        <v>-1.617862767493657</v>
       </c>
       <c r="I14" t="n">
-        <v>1.617862767253715</v>
+        <v>1.617862767493657</v>
       </c>
       <c r="J14" t="n">
-        <v>0.180910581065848</v>
+        <v>0.1809105810675419</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.2277120042899014</v>
+        <v>-0.2277120042909473</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3972480231172097</v>
+        <v>0.3972480231181966</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7357651153672613</v>
+        <v>-0.7357651153672489</v>
       </c>
       <c r="N14" t="n">
         <v>52.8</v>
@@ -1582,13 +1582,13 @@
         <v>2.079850777440175</v>
       </c>
       <c r="U14" t="n">
-        <v>-15.38923714772245</v>
+        <v>-15.38923714566914</v>
       </c>
       <c r="V14" t="n">
         <v>120.8308473713893</v>
       </c>
       <c r="W14" t="n">
-        <v>1.669686459517412</v>
+        <v>1.669686459826414</v>
       </c>
       <c r="X14" t="n">
         <v>150</v>
@@ -1617,28 +1617,28 @@
         <v>127.0682131098356</v>
       </c>
       <c r="F15" t="n">
-        <v>26.56101780365711</v>
+        <v>26.56101780602825</v>
       </c>
       <c r="G15" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.284164029318918</v>
+        <v>-1.284164029832853</v>
       </c>
       <c r="I15" t="n">
-        <v>1.284164029318918</v>
+        <v>1.284164029832853</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.03788759800553526</v>
+        <v>-0.03788759800652704</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.06882219182798029</v>
+        <v>-0.06882219182754051</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2834716058049646</v>
+        <v>0.2834716058048439</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07116656568115519</v>
+        <v>-0.07116656568198482</v>
       </c>
       <c r="N15" t="n">
         <v>49.73684210526316</v>
@@ -1662,13 +1662,13 @@
         <v>1.993790422946172</v>
       </c>
       <c r="U15" t="n">
-        <v>-26.56101780365711</v>
+        <v>-26.56101780602825</v>
       </c>
       <c r="V15" t="n">
         <v>127.0682131098356</v>
       </c>
       <c r="W15" t="n">
-        <v>1.402063965374586</v>
+        <v>1.402063965970541</v>
       </c>
       <c r="X15" t="n">
         <v>150</v>
@@ -1697,28 +1697,28 @@
         <v>145.1043927396902</v>
       </c>
       <c r="F16" t="n">
-        <v>31.12897642980639</v>
+        <v>31.12897276302042</v>
       </c>
       <c r="G16" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.50379529173922</v>
+        <v>-1.503794352907172</v>
       </c>
       <c r="I16" t="n">
-        <v>1.50379529173922</v>
+        <v>1.503794352907172</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08726098854264579</v>
+        <v>-0.08726098821723553</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1203093997044644</v>
+        <v>-0.1203094000826032</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3395608532288576</v>
+        <v>0.3395608531865373</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7269747021893608</v>
+        <v>-0.7269746996018032</v>
       </c>
       <c r="N16" t="n">
         <v>46.93333333333333</v>
@@ -1742,13 +1742,13 @@
         <v>2.021394509488612</v>
       </c>
       <c r="U16" t="n">
-        <v>-31.12897642980639</v>
+        <v>-31.12897276302042</v>
       </c>
       <c r="V16" t="n">
         <v>145.1043927396902</v>
       </c>
       <c r="W16" t="n">
-        <v>1.608104788236711</v>
+        <v>1.608103774625814</v>
       </c>
       <c r="X16" t="n">
         <v>150</v>
@@ -1777,28 +1777,28 @@
         <v>148.8034310544471</v>
       </c>
       <c r="F17" t="n">
-        <v>36.15117885889561</v>
+        <v>36.15118976778573</v>
       </c>
       <c r="G17" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.541734370871175</v>
+        <v>-1.541736550098649</v>
       </c>
       <c r="I17" t="n">
-        <v>1.541734370871175</v>
+        <v>1.541736550098649</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.08551981015007673</v>
+        <v>-0.08551981053066103</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1784575509583609</v>
+        <v>-0.178457551606771</v>
       </c>
       <c r="L17" t="n">
-        <v>0.438821208818602</v>
+        <v>0.4388212101826979</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.914013549772321</v>
+        <v>-0.9140135589276172</v>
       </c>
       <c r="N17" t="n">
         <v>49.73809523809524</v>
@@ -1822,13 +1822,13 @@
         <v>2.042660558701523</v>
       </c>
       <c r="U17" t="n">
-        <v>-36.15117885889561</v>
+        <v>-36.15118976778573</v>
       </c>
       <c r="V17" t="n">
         <v>148.8034310544471</v>
       </c>
       <c r="W17" t="n">
-        <v>1.640831702829707</v>
+        <v>1.640834186467667</v>
       </c>
       <c r="X17" t="n">
         <v>150</v>
@@ -1857,28 +1857,28 @@
         <v>149.2315091988515</v>
       </c>
       <c r="F18" t="n">
-        <v>40.80515876366328</v>
+        <v>40.80515876448365</v>
       </c>
       <c r="G18" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.633807582748811</v>
+        <v>-1.633807583001439</v>
       </c>
       <c r="I18" t="n">
-        <v>1.755321874802457</v>
+        <v>1.755321874947923</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04615451639813603</v>
+        <v>0.0461545163979622</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1324467621520965</v>
+        <v>-0.1324467621521646</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5535486110287817</v>
+        <v>0.5535486110287092</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.7179106075278269</v>
+        <v>-0.7179106075280479</v>
       </c>
       <c r="N18" t="n">
         <v>51.46511627906977</v>
@@ -1902,13 +1902,13 @@
         <v>2.079393484785871</v>
       </c>
       <c r="U18" t="n">
-        <v>-40.80515876366328</v>
+        <v>-40.80515876448365</v>
       </c>
       <c r="V18" t="n">
         <v>149.2315091988515</v>
       </c>
       <c r="W18" t="n">
-        <v>1.908102831958076</v>
+        <v>1.908102832137535</v>
       </c>
       <c r="X18" t="n">
         <v>150</v>
@@ -1937,28 +1937,28 @@
         <v>144.7303855828553</v>
       </c>
       <c r="F19" t="n">
-        <v>45.76595194991106</v>
+        <v>45.76594479573873</v>
       </c>
       <c r="G19" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.973113727519595</v>
+        <v>-1.973111859293573</v>
       </c>
       <c r="I19" t="n">
-        <v>1.973113727519595</v>
+        <v>1.973111859293573</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009917822177669681</v>
+        <v>-0.00991782003684299</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02496410166987081</v>
+        <v>0.02496410165110431</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6971652619478166</v>
+        <v>0.6971652625067989</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.7667586471878869</v>
+        <v>-0.7667586474609758</v>
       </c>
       <c r="N19" t="n">
         <v>52.26190476190476</v>
@@ -1982,13 +1982,13 @@
         <v>1.847981908313816</v>
       </c>
       <c r="U19" t="n">
-        <v>-45.76595194991106</v>
+        <v>-45.76594479573873</v>
       </c>
       <c r="V19" t="n">
         <v>144.7303855828553</v>
       </c>
       <c r="W19" t="n">
-        <v>2.107569672420149</v>
+        <v>2.107567982510194</v>
       </c>
       <c r="X19" t="n">
         <v>150</v>
@@ -2017,28 +2017,28 @@
         <v>145.3494743757803</v>
       </c>
       <c r="F20" t="n">
-        <v>50.49389489080841</v>
+        <v>50.49389490089558</v>
       </c>
       <c r="G20" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.778254570166535</v>
+        <v>-2.778254572864248</v>
       </c>
       <c r="I20" t="n">
-        <v>2.778254570166535</v>
+        <v>2.778254572864248</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1037745532773737</v>
+        <v>0.1037745532785301</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02379195354115579</v>
+        <v>-0.02379195354121498</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6245910722560676</v>
+        <v>0.6245910722559268</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.5909322712441433</v>
+        <v>-0.5909322712408372</v>
       </c>
       <c r="N20" t="n">
         <v>50.70833333333334</v>
@@ -2062,13 +2062,13 @@
         <v>1.59741078955099</v>
       </c>
       <c r="U20" t="n">
-        <v>-50.49389489080841</v>
+        <v>-50.49389490089558</v>
       </c>
       <c r="V20" t="n">
         <v>145.3494743757803</v>
       </c>
       <c r="W20" t="n">
-        <v>2.884369753915072</v>
+        <v>2.884369756773235</v>
       </c>
       <c r="X20" t="n">
         <v>150</v>
@@ -2097,28 +2097,28 @@
         <v>299.8631259399092</v>
       </c>
       <c r="F21" t="n">
-        <v>-46.73465053316863</v>
+        <v>-46.73465053099107</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H21" t="n">
-        <v>1.073632751228566</v>
+        <v>1.073632750820798</v>
       </c>
       <c r="I21" t="n">
-        <v>1.176550771158134</v>
+        <v>1.176550770702079</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01103800018975324</v>
+        <v>0.01103800019006275</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02387080046147696</v>
+        <v>0.02387080046203813</v>
       </c>
       <c r="L21" t="n">
-        <v>1.060134536265774</v>
+        <v>1.060134536266712</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1075301272059472</v>
+        <v>-0.1075301272057171</v>
       </c>
       <c r="N21" t="n">
         <v>43.57142857142857</v>
@@ -2142,13 +2142,13 @@
         <v>1.711316514236927</v>
       </c>
       <c r="U21" t="n">
-        <v>46.73465053316863</v>
+        <v>46.73465053099107</v>
       </c>
       <c r="V21" t="n">
         <v>299.8631259399092</v>
       </c>
       <c r="W21" t="n">
-        <v>1.611656659240834</v>
+        <v>1.611656658930227</v>
       </c>
       <c r="X21" t="n">
         <v>300</v>
@@ -2177,28 +2177,28 @@
         <v>292.3622795108685</v>
       </c>
       <c r="F22" t="n">
-        <v>-42.61188082546585</v>
+        <v>-42.61188102692612</v>
       </c>
       <c r="G22" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5344772780293567</v>
+        <v>0.5344773415771654</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9456025610822806</v>
+        <v>0.9456026308003512</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08969140953406589</v>
+        <v>-0.08969140956077271</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2855689919364901</v>
+        <v>0.2855689919157892</v>
       </c>
       <c r="L22" t="n">
-        <v>1.04725182333284</v>
+        <v>1.047251823243364</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.1582383068866334</v>
+        <v>-0.1582383069991881</v>
       </c>
       <c r="N22" t="n">
         <v>40.46938775510204</v>
@@ -2222,13 +2222,13 @@
         <v>1.844385743152118</v>
       </c>
       <c r="U22" t="n">
-        <v>42.61188082546585</v>
+        <v>42.61188102692612</v>
       </c>
       <c r="V22" t="n">
         <v>292.3622795108685</v>
       </c>
       <c r="W22" t="n">
-        <v>1.492370796733498</v>
+        <v>1.492370850561945</v>
       </c>
       <c r="X22" t="n">
         <v>300</v>
@@ -2257,28 +2257,28 @@
         <v>298.8242291346991</v>
       </c>
       <c r="F23" t="n">
-        <v>-37.85455661615558</v>
+        <v>-37.85455680742082</v>
       </c>
       <c r="G23" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1693665216806007</v>
+        <v>-0.1693663936514508</v>
       </c>
       <c r="I23" t="n">
-        <v>1.509679637067742</v>
+        <v>1.509679625669258</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1725547383347631</v>
+        <v>-0.1725547383588315</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06485201914510179</v>
+        <v>0.06485201915423762</v>
       </c>
       <c r="L23" t="n">
-        <v>1.118513369269835</v>
+        <v>1.118513369170183</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02540960076721366</v>
+        <v>-0.0254096006505174</v>
       </c>
       <c r="N23" t="n">
         <v>41.75</v>
@@ -2302,13 +2302,13 @@
         <v>2.06056410252249</v>
       </c>
       <c r="U23" t="n">
-        <v>37.85455661615558</v>
+        <v>37.85455680742082</v>
       </c>
       <c r="V23" t="n">
         <v>298.8242291346991</v>
       </c>
       <c r="W23" t="n">
-        <v>1.860413196135717</v>
+        <v>1.860413232172362</v>
       </c>
       <c r="X23" t="n">
         <v>300</v>
@@ -2337,28 +2337,28 @@
         <v>302.4011410270368</v>
       </c>
       <c r="F24" t="n">
-        <v>-33.52478970505955</v>
+        <v>-33.524791841423</v>
       </c>
       <c r="G24" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.5409093726894314</v>
+        <v>-0.5409093217707422</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9776639973508884</v>
+        <v>0.9776646915752683</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.1184637718490026</v>
+        <v>-0.1184637725873764</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1955541110380914</v>
+        <v>0.1955541100385584</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5610670436386243</v>
+        <v>0.5610670431716027</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.004257427502665182</v>
+        <v>-0.00425742774760379</v>
       </c>
       <c r="N24" t="n">
         <v>46.29090909090909</v>
@@ -2382,13 +2382,13 @@
         <v>1.846499892116088</v>
       </c>
       <c r="U24" t="n">
-        <v>33.52478970505955</v>
+        <v>33.524791841423</v>
       </c>
       <c r="V24" t="n">
         <v>302.4011410270368</v>
       </c>
       <c r="W24" t="n">
-        <v>1.223668217998893</v>
+        <v>1.223669048051874</v>
       </c>
       <c r="X24" t="n">
         <v>300</v>
@@ -2417,28 +2417,28 @@
         <v>302.2904615605069</v>
       </c>
       <c r="F25" t="n">
-        <v>-29.39208890197296</v>
+        <v>-29.39209537445634</v>
       </c>
       <c r="G25" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9821331372246294</v>
+        <v>-0.9821329340478839</v>
       </c>
       <c r="I25" t="n">
-        <v>1.173534524687698</v>
+        <v>1.173535551191259</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.1000948824299261</v>
+        <v>-0.1000948845381564</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04758978465957125</v>
+        <v>0.0475897818791713</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4242162909974802</v>
+        <v>0.4242162888172932</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03855680660549043</v>
+        <v>0.03855680788281952</v>
       </c>
       <c r="N25" t="n">
         <v>47.74117647058824</v>
@@ -2462,13 +2462,13 @@
         <v>1.926281145000283</v>
       </c>
       <c r="U25" t="n">
-        <v>29.39208890197296</v>
+        <v>29.39209537445634</v>
       </c>
       <c r="V25" t="n">
         <v>302.2904615605069</v>
       </c>
       <c r="W25" t="n">
-        <v>1.366738619539262</v>
+        <v>1.366740178096345</v>
       </c>
       <c r="X25" t="n">
         <v>300</v>
@@ -2497,28 +2497,28 @@
         <v>303.985405487632</v>
       </c>
       <c r="F26" t="n">
-        <v>-23.7691806120417</v>
+        <v>-23.76918054366147</v>
       </c>
       <c r="G26" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9014832039063847</v>
+        <v>-0.90148320965683</v>
       </c>
       <c r="I26" t="n">
-        <v>1.208870691446115</v>
+        <v>1.208870673416904</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02505415356184739</v>
+        <v>0.02505415358796407</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.07716879993534292</v>
+        <v>-0.07716879990200727</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4072626119479177</v>
+        <v>0.4072626119635845</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1035855332905041</v>
+        <v>-0.1035855332990074</v>
       </c>
       <c r="N26" t="n">
         <v>47.75</v>
@@ -2542,13 +2542,13 @@
         <v>2.078649046831291</v>
       </c>
       <c r="U26" t="n">
-        <v>23.7691806120417</v>
+        <v>23.76918054366147</v>
       </c>
       <c r="V26" t="n">
         <v>303.985405487632</v>
       </c>
       <c r="W26" t="n">
-        <v>1.349108943788678</v>
+        <v>1.349108915756901</v>
       </c>
       <c r="X26" t="n">
         <v>300</v>
@@ -2577,28 +2577,28 @@
         <v>305.3585185460998</v>
       </c>
       <c r="F27" t="n">
-        <v>-19.18688868392046</v>
+        <v>-19.18688868112701</v>
       </c>
       <c r="G27" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9816847154493112</v>
+        <v>-0.9816847157397014</v>
       </c>
       <c r="I27" t="n">
-        <v>1.122923128236723</v>
+        <v>1.12292312743241</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0247789242974061</v>
+        <v>-0.02477892429650784</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.08020104122077246</v>
+        <v>-0.08020104121916541</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2768880591302187</v>
+        <v>0.2768880591301521</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.07578330776140141</v>
+        <v>-0.0757833077622329</v>
       </c>
       <c r="N27" t="n">
         <v>49.22727272727273</v>
@@ -2622,13 +2622,13 @@
         <v>2.189598641841068</v>
       </c>
       <c r="U27" t="n">
-        <v>19.18688868392046</v>
+        <v>19.18688868112701</v>
       </c>
       <c r="V27" t="n">
         <v>305.3585185460998</v>
       </c>
       <c r="W27" t="n">
-        <v>1.308427153127471</v>
+        <v>1.308427152109632</v>
       </c>
       <c r="X27" t="n">
         <v>300</v>
@@ -2657,28 +2657,28 @@
         <v>300.9310220139467</v>
       </c>
       <c r="F28" t="n">
-        <v>-14.46988659034205</v>
+        <v>-14.469886631893</v>
       </c>
       <c r="G28" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.9345042816553747</v>
+        <v>-0.93450427016025</v>
       </c>
       <c r="I28" t="n">
-        <v>1.170782284700182</v>
+        <v>1.170782296412212</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.009752818035137929</v>
+        <v>-0.009752818047285455</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.1164975535052783</v>
+        <v>-0.1164975535326343</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3194717072902865</v>
+        <v>0.3194717073158064</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.06663049628299322</v>
+        <v>-0.06663049626641837</v>
       </c>
       <c r="N28" t="n">
         <v>48.61224489795919</v>
@@ -2702,13 +2702,13 @@
         <v>2.179217656180883</v>
       </c>
       <c r="U28" t="n">
-        <v>14.46988659034205</v>
+        <v>14.469886631893</v>
       </c>
       <c r="V28" t="n">
         <v>300.9310220139467</v>
       </c>
       <c r="W28" t="n">
-        <v>1.373048809366347</v>
+        <v>1.373048822373025</v>
       </c>
       <c r="X28" t="n">
         <v>300</v>
@@ -2737,28 +2737,28 @@
         <v>296.9366035232122</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.16440694856257</v>
+        <v>-9.164406220778698</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7520399675010355</v>
+        <v>-0.7520401288676104</v>
       </c>
       <c r="I29" t="n">
-        <v>1.496512116192601</v>
+        <v>1.496511954118199</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.02563960704133247</v>
+        <v>-0.02563960679403755</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.05890013775419689</v>
+        <v>-0.05890013676475733</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3382428533018493</v>
+        <v>0.3382428528198876</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.08549575669650637</v>
+        <v>-0.08549575688368043</v>
       </c>
       <c r="N29" t="n">
         <v>48.60714285714285</v>
@@ -2782,13 +2782,13 @@
         <v>2.276214623446605</v>
       </c>
       <c r="U29" t="n">
-        <v>9.16440694856257</v>
+        <v>9.164406220778698</v>
       </c>
       <c r="V29" t="n">
         <v>296.9366035232122</v>
       </c>
       <c r="W29" t="n">
-        <v>1.694629164340179</v>
+        <v>1.694628854974908</v>
       </c>
       <c r="X29" t="n">
         <v>300</v>
@@ -2817,28 +2817,28 @@
         <v>299.3799661220074</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.498809659050392</v>
+        <v>-2.498809661624156</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H30" t="n">
-        <v>1.663306213906544</v>
+        <v>1.663306214166111</v>
       </c>
       <c r="I30" t="n">
-        <v>2.62741129307655</v>
+        <v>2.627411293914315</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01782628523059027</v>
+        <v>-0.01782628523005043</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.05834232373936883</v>
+        <v>-0.05834232374100944</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2685680193611741</v>
+        <v>0.2685680193614033</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04595448772687784</v>
+        <v>-0.04595448772620934</v>
       </c>
       <c r="N30" t="n">
         <v>47.15116279069768</v>
@@ -2862,13 +2862,13 @@
         <v>2.256357955829004</v>
       </c>
       <c r="U30" t="n">
-        <v>2.498809659050392</v>
+        <v>2.498809661624156</v>
       </c>
       <c r="V30" t="n">
         <v>299.3799661220074</v>
       </c>
       <c r="W30" t="n">
-        <v>2.950905442946695</v>
+        <v>2.950905443578076</v>
       </c>
       <c r="X30" t="n">
         <v>300</v>
@@ -2897,28 +2897,28 @@
         <v>301.0907479275377</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3023489213485746</v>
+        <v>-0.3023488652406891</v>
       </c>
       <c r="G31" t="n">
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.802348921348575</v>
+        <v>-1.802348865240689</v>
       </c>
       <c r="I31" t="n">
-        <v>2.131563316798665</v>
+        <v>2.131563273673823</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005162550658796202</v>
+        <v>0.00516255065158498</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04575706191808569</v>
+        <v>-0.04575706192832453</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3272770588195649</v>
+        <v>0.3272770588027052</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.1279268014383094</v>
+        <v>-0.1279268014438792</v>
       </c>
       <c r="N31" t="n">
         <v>47.15151515151515</v>
@@ -2942,13 +2942,13 @@
         <v>2.275659769878143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.3023489213485746</v>
+        <v>0.3023488652406891</v>
       </c>
       <c r="V31" t="n">
         <v>301.0907479275377</v>
       </c>
       <c r="W31" t="n">
-        <v>2.325004045626487</v>
+        <v>2.325004008304195</v>
       </c>
       <c r="X31" t="n">
         <v>300</v>
@@ -2977,28 +2977,28 @@
         <v>321.3895134489188</v>
       </c>
       <c r="F32" t="n">
-        <v>3.650105460844875</v>
+        <v>3.650105941201955</v>
       </c>
       <c r="G32" t="n">
-        <v>6.8835898764683</v>
+        <v>6.883590572356015</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.233484415623425</v>
+        <v>-3.23348463115406</v>
       </c>
       <c r="I32" t="n">
-        <v>3.233484415623425</v>
+        <v>3.23348463115406</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01710593417697963</v>
+        <v>-0.01710593389302291</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.08516158619685192</v>
+        <v>-0.08516158613242082</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2579296407480381</v>
+        <v>0.2579296407628076</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2204457470816144</v>
+        <v>0.2204457468998695</v>
       </c>
       <c r="N32" t="n">
         <v>42.87096774193548</v>
@@ -3022,13 +3022,13 @@
         <v>2.186394076699064</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.650105460844875</v>
+        <v>-3.650105941201955</v>
       </c>
       <c r="V32" t="n">
         <v>321.3895134489188</v>
       </c>
       <c r="W32" t="n">
-        <v>3.385503427522914</v>
+        <v>3.385503603946013</v>
       </c>
       <c r="X32" t="n">
         <v>300</v>
@@ -3057,28 +3057,28 @@
         <v>320.6308088290701</v>
       </c>
       <c r="F33" t="n">
-        <v>9.802587427882424</v>
+        <v>9.802586077036512</v>
       </c>
       <c r="G33" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.491640169329616</v>
+        <v>-2.491640192051215</v>
       </c>
       <c r="I33" t="n">
-        <v>2.491640169329616</v>
+        <v>2.491640192051215</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01654298331237669</v>
+        <v>0.016542983260058</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01902060594573953</v>
+        <v>-0.01902060603887747</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2344668490241652</v>
+        <v>0.2344668507929125</v>
       </c>
       <c r="M33" t="n">
-        <v>0.146669573811693</v>
+        <v>0.1466695738060516</v>
       </c>
       <c r="N33" t="n">
         <v>58.1</v>
@@ -3102,13 +3102,13 @@
         <v>2.17090177786728</v>
       </c>
       <c r="U33" t="n">
-        <v>-9.802587427882424</v>
+        <v>-9.802586077036512</v>
       </c>
       <c r="V33" t="n">
         <v>320.6308088290701</v>
       </c>
       <c r="W33" t="n">
-        <v>2.569005905027097</v>
+        <v>2.569006120139355</v>
       </c>
       <c r="X33" t="n">
         <v>300</v>
@@ -3137,28 +3137,28 @@
         <v>319.1020770889223</v>
       </c>
       <c r="F34" t="n">
-        <v>14.84323574868237</v>
+        <v>14.84323574766214</v>
       </c>
       <c r="G34" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.163864166293791</v>
+        <v>-2.163864165500655</v>
       </c>
       <c r="I34" t="n">
-        <v>2.163864166293791</v>
+        <v>2.163864165500655</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04953157581816778</v>
+        <v>-0.04953157581735716</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0858782170553636</v>
+        <v>0.08587821705572382</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3031581991457765</v>
+        <v>0.3031581991447191</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0851069188418635</v>
+        <v>0.08510691884175869</v>
       </c>
       <c r="N34" t="n">
         <v>51.78260869565217</v>
@@ -3182,13 +3182,13 @@
         <v>2.049029298766869</v>
       </c>
       <c r="U34" t="n">
-        <v>-14.84323574868237</v>
+        <v>-14.84323574766214</v>
       </c>
       <c r="V34" t="n">
         <v>319.1020770889223</v>
       </c>
       <c r="W34" t="n">
-        <v>2.276757923560986</v>
+        <v>2.276757922863901</v>
       </c>
       <c r="X34" t="n">
         <v>300</v>
@@ -3217,28 +3217,28 @@
         <v>243.6736931398528</v>
       </c>
       <c r="F35" t="n">
-        <v>26.19917785467214</v>
+        <v>26.1991778549993</v>
       </c>
       <c r="G35" t="n">
-        <v>27.84518183297603</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.646003978303887</v>
+        <v>-1.646003980861806</v>
       </c>
       <c r="I35" t="n">
-        <v>1.646003978303887</v>
+        <v>1.646003980861806</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07016382350218466</v>
+        <v>0.0701638235048563</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2634835514721298</v>
+        <v>0.2634835514712393</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6050972424885028</v>
+        <v>0.6050972424887581</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1164938098017399</v>
+        <v>0.1164938098042179</v>
       </c>
       <c r="N35" t="n">
         <v>32</v>
@@ -3262,13 +3262,13 @@
         <v>1.852410390137241</v>
       </c>
       <c r="U35" t="n">
-        <v>-26.19917785467214</v>
+        <v>-26.1991778549993</v>
       </c>
       <c r="V35" t="n">
         <v>243.6736931398528</v>
       </c>
       <c r="W35" t="n">
-        <v>1.703942522931514</v>
+        <v>1.70394252534888</v>
       </c>
       <c r="X35" t="n">
         <v>300</v>
@@ -3297,28 +3297,28 @@
         <v>293.7806631466954</v>
       </c>
       <c r="F36" t="n">
-        <v>30.00944015130566</v>
+        <v>30.00943556814235</v>
       </c>
       <c r="G36" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.623331570239952</v>
+        <v>-2.623331547785237</v>
       </c>
       <c r="I36" t="n">
-        <v>2.623331570239952</v>
+        <v>2.623331547785237</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05222707736060102</v>
+        <v>0.05222707714223631</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07600434856881624</v>
+        <v>0.0760043460572831</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3905116015977807</v>
+        <v>0.3905116024967077</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2003770910106606</v>
+        <v>0.2003770894230733</v>
       </c>
       <c r="N36" t="n">
         <v>45.91666666666666</v>
@@ -3342,13 +3342,13 @@
         <v>1.802711098594291</v>
       </c>
       <c r="U36" t="n">
-        <v>-30.00944015130566</v>
+        <v>-30.00943556814235</v>
       </c>
       <c r="V36" t="n">
         <v>293.7806631466954</v>
       </c>
       <c r="W36" t="n">
-        <v>2.77897121667397</v>
+        <v>2.778971469183359</v>
       </c>
       <c r="X36" t="n">
         <v>300</v>
@@ -3377,28 +3377,28 @@
         <v>301.5682123779292</v>
       </c>
       <c r="F37" t="n">
-        <v>34.6801443923591</v>
+        <v>34.680158114269</v>
       </c>
       <c r="G37" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.012768837407677</v>
+        <v>-3.01276820361538</v>
       </c>
       <c r="I37" t="n">
-        <v>3.012768837407677</v>
+        <v>3.01276820361538</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07305823530084908</v>
+        <v>0.07305823798986336</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08578236483066642</v>
+        <v>0.08578237141488766</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5743994246523879</v>
+        <v>0.5743994219466424</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3167167627107631</v>
+        <v>0.3167167683758572</v>
       </c>
       <c r="N37" t="n">
         <v>48.29411764705883</v>
@@ -3422,13 +3422,13 @@
         <v>1.817764885522524</v>
       </c>
       <c r="U37" t="n">
-        <v>-34.6801443923591</v>
+        <v>-34.680158114269</v>
       </c>
       <c r="V37" t="n">
         <v>301.5682123779292</v>
       </c>
       <c r="W37" t="n">
-        <v>3.197209315358704</v>
+        <v>3.197207782143384</v>
       </c>
       <c r="X37" t="n">
         <v>300</v>
@@ -3457,28 +3457,28 @@
         <v>290.1313954238893</v>
       </c>
       <c r="F38" t="n">
-        <v>39.71638471203794</v>
+        <v>39.71638471314741</v>
       </c>
       <c r="G38" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.722581634374143</v>
+        <v>-2.722581634337676</v>
       </c>
       <c r="I38" t="n">
-        <v>3.004199259795164</v>
+        <v>3.004199259727093</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.06387657180635919</v>
+        <v>-0.06387657180641226</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1774641716080523</v>
+        <v>0.1774641716090068</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6436684327690231</v>
+        <v>0.6436684327691145</v>
       </c>
       <c r="M38" t="n">
-        <v>0.006029774924456666</v>
+        <v>0.006029774924721482</v>
       </c>
       <c r="N38" t="n">
         <v>47.21875</v>
@@ -3502,13 +3502,13 @@
         <v>1.967062945686488</v>
       </c>
       <c r="U38" t="n">
-        <v>-39.71638471203794</v>
+        <v>-39.71638471314741</v>
       </c>
       <c r="V38" t="n">
         <v>290.1313954238893</v>
       </c>
       <c r="W38" t="n">
-        <v>3.213010450704982</v>
+        <v>3.213010450620063</v>
       </c>
       <c r="X38" t="n">
         <v>300</v>
@@ -3537,28 +3537,28 @@
         <v>288.2565470529282</v>
       </c>
       <c r="F39" t="n">
-        <v>44.56564055431054</v>
+        <v>44.56563219785976</v>
       </c>
       <c r="G39" t="n">
-        <v>47.73906567743065</v>
+        <v>47.73905665503229</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.173425123120111</v>
+        <v>-3.173424457172534</v>
       </c>
       <c r="I39" t="n">
-        <v>3.195258723737656</v>
+        <v>3.195258124996466</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.06387064225742459</v>
+        <v>-0.06387064103716068</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1074347401900888</v>
+        <v>0.107434736906986</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8125679695361554</v>
+        <v>0.812567972752774</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2362004979523547</v>
+        <v>0.2362004973458964</v>
       </c>
       <c r="N39" t="n">
         <v>45.24561403508772</v>
@@ -3582,13 +3582,13 @@
         <v>1.89077612943039</v>
       </c>
       <c r="U39" t="n">
-        <v>-44.56564055431054</v>
+        <v>-44.56563219785976</v>
       </c>
       <c r="V39" t="n">
         <v>288.2565470529282</v>
       </c>
       <c r="W39" t="n">
-        <v>3.389731465529478</v>
+        <v>3.389731148273985</v>
       </c>
       <c r="X39" t="n">
         <v>300</v>
@@ -3617,28 +3617,28 @@
         <v>290.1140100117756</v>
       </c>
       <c r="F40" t="n">
-        <v>49.83679135145116</v>
+        <v>49.83679136600529</v>
       </c>
       <c r="G40" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.435358109523782</v>
+        <v>-3.435358107754526</v>
       </c>
       <c r="I40" t="n">
-        <v>3.435358109523782</v>
+        <v>3.435358107754526</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08732517962914772</v>
+        <v>0.08732517962643153</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07961290405861966</v>
+        <v>0.07961290405907086</v>
       </c>
       <c r="L40" t="n">
-        <v>1.046227644642849</v>
+        <v>1.046227644641387</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.09452345187581992</v>
+        <v>-0.09452345186992174</v>
       </c>
       <c r="N40" t="n">
         <v>51.08333333333334</v>
@@ -3662,13 +3662,13 @@
         <v>1.889671318274059</v>
       </c>
       <c r="U40" t="n">
-        <v>-49.83679135145116</v>
+        <v>-49.83679136600529</v>
       </c>
       <c r="V40" t="n">
         <v>290.1140100117756</v>
       </c>
       <c r="W40" t="n">
-        <v>3.562217889945002</v>
+        <v>3.562217888611288</v>
       </c>
       <c r="X40" t="n">
         <v>300</v>
@@ -3697,28 +3697,28 @@
         <v>423.9034918766989</v>
       </c>
       <c r="F41" t="n">
-        <v>-46.30450804784254</v>
+        <v>-46.30450804767568</v>
       </c>
       <c r="G41" t="n">
-        <v>-47.8082832843972</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="H41" t="n">
-        <v>1.503775236554661</v>
+        <v>1.503775234136196</v>
       </c>
       <c r="I41" t="n">
-        <v>1.503775236554661</v>
+        <v>1.503775234136196</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.4511142709692823</v>
+        <v>-0.4511142709701379</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.05718360563041191</v>
+        <v>-0.05718360563309603</v>
       </c>
       <c r="L41" t="n">
-        <v>1.068102665922123</v>
+        <v>1.068102665924825</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.312923767930396</v>
+        <v>-0.3129237679343583</v>
       </c>
       <c r="N41" t="n">
         <v>18.58823529411765</v>
@@ -3742,13 +3742,13 @@
         <v>2.034368779382819</v>
       </c>
       <c r="U41" t="n">
-        <v>46.30450804784254</v>
+        <v>46.30450804767568</v>
       </c>
       <c r="V41" t="n">
         <v>423.9034918766989</v>
       </c>
       <c r="W41" t="n">
-        <v>1.888099108446148</v>
+        <v>1.888099105541417</v>
       </c>
       <c r="X41" t="n">
         <v>450</v>
@@ -3777,28 +3777,28 @@
         <v>418.1107098902114</v>
       </c>
       <c r="F42" t="n">
-        <v>-42.32749300074489</v>
+        <v>-42.32749299021243</v>
       </c>
       <c r="G42" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8188651027503061</v>
+        <v>0.8188653782908621</v>
       </c>
       <c r="I42" t="n">
-        <v>1.053571687559138</v>
+        <v>1.05357196055495</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.7021802863455278</v>
+        <v>-0.7021802861003162</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.5477255113512673</v>
+        <v>-0.5477255111550373</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25485457439602</v>
+        <v>1.254854574075464</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.1116247401032965</v>
+        <v>-0.1116247391779794</v>
       </c>
       <c r="N42" t="n">
         <v>24.73333333333333</v>
@@ -3822,13 +3822,13 @@
         <v>2.328360796557079</v>
       </c>
       <c r="U42" t="n">
-        <v>42.32749300074489</v>
+        <v>42.32749299021243</v>
       </c>
       <c r="V42" t="n">
         <v>418.1107098902114</v>
       </c>
       <c r="W42" t="n">
-        <v>1.156341471389421</v>
+        <v>1.156341809485426</v>
       </c>
       <c r="X42" t="n">
         <v>450</v>
@@ -3857,28 +3857,28 @@
         <v>402.4206033553338</v>
       </c>
       <c r="F43" t="n">
-        <v>-36.86583672270591</v>
+        <v>-36.8658368637183</v>
       </c>
       <c r="G43" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8193533717690613</v>
+        <v>0.8193535500510696</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9971032191905943</v>
+        <v>0.99710333226141</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.4604752281097418</v>
+        <v>-0.4604752280214294</v>
       </c>
       <c r="K43" t="n">
-        <v>0.007189920809840562</v>
+        <v>0.007189920971192494</v>
       </c>
       <c r="L43" t="n">
-        <v>0.929895050397801</v>
+        <v>0.9298950501660633</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.734418285128396</v>
+        <v>-0.7344182846884867</v>
       </c>
       <c r="N43" t="n">
         <v>48.73333333333333</v>
@@ -3902,13 +3902,13 @@
         <v>2.036448835021173</v>
       </c>
       <c r="U43" t="n">
-        <v>36.86583672270591</v>
+        <v>36.8658368637183</v>
       </c>
       <c r="V43" t="n">
         <v>402.4206033553338</v>
       </c>
       <c r="W43" t="n">
-        <v>1.347703540122329</v>
+        <v>1.347703551874538</v>
       </c>
       <c r="X43" t="n">
         <v>450</v>
@@ -3937,28 +3937,28 @@
         <v>401.8706011247426</v>
       </c>
       <c r="F44" t="n">
-        <v>-32.936942725865</v>
+        <v>-32.93694400984914</v>
       </c>
       <c r="G44" t="n">
-        <v>-32.98388033237012</v>
+        <v>-32.98388251965225</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04693760650511458</v>
+        <v>0.04693850980311511</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9484391749976128</v>
+        <v>0.948440258214883</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1147528959879544</v>
+        <v>0.1147528973997517</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.3818858001566824</v>
+        <v>-0.3818857984341562</v>
       </c>
       <c r="L44" t="n">
-        <v>1.106527932951274</v>
+        <v>1.106527930463149</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04363387041183793</v>
+        <v>0.04363387167352815</v>
       </c>
       <c r="N44" t="n">
         <v>57.7</v>
@@ -3982,13 +3982,13 @@
         <v>2.081362075240716</v>
       </c>
       <c r="U44" t="n">
-        <v>32.936942725865</v>
+        <v>32.93694400984914</v>
       </c>
       <c r="V44" t="n">
         <v>401.8706011247426</v>
       </c>
       <c r="W44" t="n">
-        <v>1.215513859766303</v>
+        <v>1.215514630742955</v>
       </c>
       <c r="X44" t="n">
         <v>450</v>
@@ -4017,28 +4017,28 @@
         <v>425.4471132814423</v>
       </c>
       <c r="F45" t="n">
-        <v>-28.99447302407452</v>
+        <v>-28.99447475448673</v>
       </c>
       <c r="G45" t="n">
-        <v>-28.40995576474833</v>
+        <v>-28.40996244040846</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.5845172593261866</v>
+        <v>-0.5845123140782688</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7565459318277276</v>
+        <v>0.7565478097670302</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0665221990118867</v>
+        <v>-0.06652219452148193</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.3383802768664451</v>
+        <v>-0.3383802707481903</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7583102890690324</v>
+        <v>0.7583102819069397</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1267838325255747</v>
+        <v>0.1267838393988046</v>
       </c>
       <c r="N45" t="n">
         <v>40.11904761904762</v>
@@ -4062,13 +4062,13 @@
         <v>2.129732332246996</v>
       </c>
       <c r="U45" t="n">
-        <v>28.99447302407452</v>
+        <v>28.99447475448673</v>
       </c>
       <c r="V45" t="n">
         <v>425.4471132814423</v>
       </c>
       <c r="W45" t="n">
-        <v>1.082862846461815</v>
+        <v>1.08286371841629</v>
       </c>
       <c r="X45" t="n">
         <v>450</v>
@@ -4097,28 +4097,28 @@
         <v>427.0604966713295</v>
       </c>
       <c r="F46" t="n">
-        <v>-23.47765625466107</v>
+        <v>-23.47765623644423</v>
       </c>
       <c r="G46" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.6099588465257517</v>
+        <v>-0.6099589024395874</v>
       </c>
       <c r="I46" t="n">
-        <v>0.796593797982124</v>
+        <v>0.7965937581139804</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.2044807367234801</v>
+        <v>-0.2044807367936391</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.06660481475479306</v>
+        <v>-0.06660481484527167</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4742104614759949</v>
+        <v>0.4742104615467439</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1946272069995958</v>
+        <v>0.1946272069414713</v>
       </c>
       <c r="N46" t="n">
         <v>37.86666666666667</v>
@@ -4142,13 +4142,13 @@
         <v>2.235790341786757</v>
       </c>
       <c r="U46" t="n">
-        <v>23.47765625466107</v>
+        <v>23.47765623644423</v>
       </c>
       <c r="V46" t="n">
         <v>427.0604966713295</v>
       </c>
       <c r="W46" t="n">
-        <v>1.065616497740154</v>
+        <v>1.065616489014765</v>
       </c>
       <c r="X46" t="n">
         <v>450</v>
@@ -4177,28 +4177,28 @@
         <v>427.1580915949783</v>
       </c>
       <c r="F47" t="n">
-        <v>-18.65772859665952</v>
+        <v>-18.65772859592081</v>
       </c>
       <c r="G47" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.4525246281883799</v>
+        <v>-0.4525246305335024</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8220042724655179</v>
+        <v>0.8220042709960613</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.07056069591828526</v>
+        <v>-0.07056069592089216</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.04367651596590068</v>
+        <v>-0.04367651597056121</v>
       </c>
       <c r="L47" t="n">
-        <v>0.394191206873808</v>
+        <v>0.3941912068762405</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05414842000611803</v>
+        <v>0.05414842000516219</v>
       </c>
       <c r="N47" t="n">
         <v>37.86666666666667</v>
@@ -4222,13 +4222,13 @@
         <v>2.227681020651787</v>
       </c>
       <c r="U47" t="n">
-        <v>18.65772859665952</v>
+        <v>18.65772859592081</v>
       </c>
       <c r="V47" t="n">
         <v>427.1580915949783</v>
       </c>
       <c r="W47" t="n">
-        <v>1.289856713774049</v>
+        <v>1.28985671326453</v>
       </c>
       <c r="X47" t="n">
         <v>450</v>
@@ -4257,28 +4257,28 @@
         <v>428.0713470008295</v>
       </c>
       <c r="F48" t="n">
-        <v>-13.92569101856626</v>
+        <v>-13.92569102826781</v>
       </c>
       <c r="G48" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173275</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3903087098795872</v>
+        <v>-0.3903086665350645</v>
       </c>
       <c r="I48" t="n">
-        <v>0.848112208780164</v>
+        <v>0.8481122294183613</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.03590357050669418</v>
+        <v>-0.0359035704691914</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.00922573765557773</v>
+        <v>-0.009225737570639778</v>
       </c>
       <c r="L48" t="n">
-        <v>0.306690115780643</v>
+        <v>0.3066901157386415</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04827421240744923</v>
+        <v>0.04827421241322635</v>
       </c>
       <c r="N48" t="n">
         <v>36.70454545454545</v>
@@ -4302,13 +4302,13 @@
         <v>2.153817179249649</v>
       </c>
       <c r="U48" t="n">
-        <v>13.92569101856626</v>
+        <v>13.92569102826781</v>
       </c>
       <c r="V48" t="n">
         <v>428.0713470008295</v>
       </c>
       <c r="W48" t="n">
-        <v>1.316210900352212</v>
+        <v>1.316210910689395</v>
       </c>
       <c r="X48" t="n">
         <v>450</v>
@@ -4337,28 +4337,28 @@
         <v>421.1335139877308</v>
       </c>
       <c r="F49" t="n">
-        <v>-8.418269299528502</v>
+        <v>-8.418269090969565</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.412366981061535</v>
+        <v>-8.412366091911087</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.005902318466967391</v>
+        <v>-0.005902999058477651</v>
       </c>
       <c r="I49" t="n">
-        <v>1.534449524783851</v>
+        <v>1.534449139347273</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03875731612694843</v>
+        <v>0.03875731563702939</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04617348325233542</v>
+        <v>0.04617348127653616</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2006715874692066</v>
+        <v>0.2006715866690035</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2550965798023132</v>
+        <v>0.2550965799913522</v>
       </c>
       <c r="N49" t="n">
         <v>39.51219512195122</v>
@@ -4382,13 +4382,13 @@
         <v>2.136151852942016</v>
       </c>
       <c r="U49" t="n">
-        <v>8.418269299528502</v>
+        <v>8.418269090969565</v>
       </c>
       <c r="V49" t="n">
         <v>421.1335139877308</v>
       </c>
       <c r="W49" t="n">
-        <v>1.913502080090393</v>
+        <v>1.913501764343971</v>
       </c>
       <c r="X49" t="n">
         <v>450</v>
@@ -4417,28 +4417,28 @@
         <v>420.7977224603324</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.70115069720904</v>
+        <v>-2.701150697969566</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162115872956935</v>
+        <v>-4.162115875790267</v>
       </c>
       <c r="H50" t="n">
-        <v>1.460965175747895</v>
+        <v>1.460965177820701</v>
       </c>
       <c r="I50" t="n">
-        <v>2.838284972902537</v>
+        <v>2.838284974399685</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02011374093316932</v>
+        <v>0.02011374093184718</v>
       </c>
       <c r="K50" t="n">
-        <v>0.07305705433386545</v>
+        <v>0.07305705433782013</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1730287595381692</v>
+        <v>0.1730287595388339</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5948045588573204</v>
+        <v>0.5948045588564896</v>
       </c>
       <c r="N50" t="n">
         <v>40.5</v>
@@ -4462,13 +4462,13 @@
         <v>2.166166683487997</v>
       </c>
       <c r="U50" t="n">
-        <v>2.70115069720904</v>
+        <v>2.701150697969566</v>
       </c>
       <c r="V50" t="n">
         <v>420.7977224603324</v>
       </c>
       <c r="W50" t="n">
-        <v>3.051310435541402</v>
+        <v>3.051310437344708</v>
       </c>
       <c r="X50" t="n">
         <v>450</v>
@@ -4497,28 +4497,28 @@
         <v>422.3561934642261</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8167677606150792</v>
+        <v>-0.8167677353483916</v>
       </c>
       <c r="G51" t="n">
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.316767760615079</v>
+        <v>-2.316767735348392</v>
       </c>
       <c r="I51" t="n">
-        <v>2.316767760615079</v>
+        <v>2.316767735348392</v>
       </c>
       <c r="J51" t="n">
-        <v>0.02496758648455218</v>
+        <v>0.02496758650435137</v>
       </c>
       <c r="K51" t="n">
-        <v>0.04389036793472638</v>
+        <v>0.04389036796421208</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1228996544789926</v>
+        <v>0.1228996544917767</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1321506293106794</v>
+        <v>0.1321506293214875</v>
       </c>
       <c r="N51" t="n">
         <v>42.92307692307692</v>
@@ -4542,13 +4542,13 @@
         <v>2.198571539989012</v>
       </c>
       <c r="U51" t="n">
-        <v>0.8167677606150792</v>
+        <v>0.8167677353483916</v>
       </c>
       <c r="V51" t="n">
         <v>422.3561934642261</v>
       </c>
       <c r="W51" t="n">
-        <v>2.424303714740312</v>
+        <v>2.424303689311934</v>
       </c>
       <c r="X51" t="n">
         <v>450</v>
@@ -4577,28 +4577,28 @@
         <v>413.8493085463565</v>
       </c>
       <c r="F52" t="n">
-        <v>13.69729222519977</v>
+        <v>13.69729222533062</v>
       </c>
       <c r="G52" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.309807689776398</v>
+        <v>-3.309807687832182</v>
       </c>
       <c r="I52" t="n">
-        <v>3.309807689776398</v>
+        <v>3.309807687832182</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02933416731108095</v>
+        <v>0.02933416730769345</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.1045798713531738</v>
+        <v>-0.1045798713536268</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1525497862521958</v>
+        <v>0.152549786251211</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2151708054341772</v>
+        <v>0.2151708054344685</v>
       </c>
       <c r="N52" t="n">
         <v>13.25</v>
@@ -4622,13 +4622,13 @@
         <v>2.04666444492356</v>
       </c>
       <c r="U52" t="n">
-        <v>-13.69729222519977</v>
+        <v>-13.69729222533062</v>
       </c>
       <c r="V52" t="n">
         <v>413.8493085463565</v>
       </c>
       <c r="W52" t="n">
-        <v>3.393227446391164</v>
+        <v>3.393227444395488</v>
       </c>
       <c r="X52" t="n">
         <v>450</v>
@@ -4657,28 +4657,28 @@
         <v>412.5357518370564</v>
       </c>
       <c r="F53" t="n">
-        <v>30.03862162258483</v>
+        <v>30.03862159112331</v>
       </c>
       <c r="G53" t="n">
-        <v>32.63277172154561</v>
+        <v>32.63276711592759</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.594150098960777</v>
+        <v>-2.594145524804286</v>
       </c>
       <c r="I53" t="n">
-        <v>2.594150098960777</v>
+        <v>2.594145524804286</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02832570867060217</v>
+        <v>0.02832570861568508</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03048793116376863</v>
+        <v>0.03048793715343632</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4079703906084756</v>
+        <v>0.4079703903286063</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7389727192100651</v>
+        <v>0.738972718453457</v>
       </c>
       <c r="N53" t="n">
         <v>36.03571428571428</v>
@@ -4702,13 +4702,13 @@
         <v>1.821939063497431</v>
       </c>
       <c r="U53" t="n">
-        <v>-30.03862162258483</v>
+        <v>-30.03862159112331</v>
       </c>
       <c r="V53" t="n">
         <v>412.5357518370564</v>
       </c>
       <c r="W53" t="n">
-        <v>2.683835362570955</v>
+        <v>2.683830786676637</v>
       </c>
       <c r="X53" t="n">
         <v>450</v>
@@ -4737,28 +4737,28 @@
         <v>414.7680698676714</v>
       </c>
       <c r="F54" t="n">
-        <v>34.93394749094049</v>
+        <v>34.93395122078176</v>
       </c>
       <c r="G54" t="n">
-        <v>37.69291322976678</v>
+        <v>37.69292631788438</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.758965738826292</v>
+        <v>-2.758975097102619</v>
       </c>
       <c r="I54" t="n">
-        <v>2.758965738826292</v>
+        <v>2.758975097102619</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.04261335942550636</v>
+        <v>-0.04261336692848702</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.07832443391760081</v>
+        <v>-0.07832445231074404</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4579526564767978</v>
+        <v>0.4579526653094512</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8675843202725185</v>
+        <v>0.8675843160913984</v>
       </c>
       <c r="N54" t="n">
         <v>48.78260869565217</v>
@@ -4782,13 +4782,13 @@
         <v>1.950770523472594</v>
       </c>
       <c r="U54" t="n">
-        <v>-34.93394749094049</v>
+        <v>-34.93395122078176</v>
       </c>
       <c r="V54" t="n">
         <v>414.7680698676714</v>
       </c>
       <c r="W54" t="n">
-        <v>2.82812483462751</v>
+        <v>2.828134134326167</v>
       </c>
       <c r="X54" t="n">
         <v>450</v>
@@ -4817,28 +4817,28 @@
         <v>419.3487406857736</v>
       </c>
       <c r="F55" t="n">
-        <v>39.38887145178771</v>
+        <v>39.38887145188629</v>
       </c>
       <c r="G55" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748509</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.050094894624376</v>
+        <v>-3.050094895598811</v>
       </c>
       <c r="I55" t="n">
-        <v>3.050094894624376</v>
+        <v>3.050094895598811</v>
       </c>
       <c r="J55" t="n">
-        <v>0.08090216886513812</v>
+        <v>0.08090216886524633</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2177883157838609</v>
+        <v>-0.2177883157859712</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6526801635767598</v>
+        <v>0.6526801635767524</v>
       </c>
       <c r="M55" t="n">
-        <v>1.172471174174303</v>
+        <v>1.172471174173971</v>
       </c>
       <c r="N55" t="n">
         <v>37.84615384615385</v>
@@ -4862,13 +4862,13 @@
         <v>2.082240054701239</v>
       </c>
       <c r="U55" t="n">
-        <v>-39.38887145178771</v>
+        <v>-39.38887145188629</v>
       </c>
       <c r="V55" t="n">
         <v>419.3487406857736</v>
       </c>
       <c r="W55" t="n">
-        <v>3.13978534008904</v>
+        <v>3.139785341090349</v>
       </c>
       <c r="X55" t="n">
         <v>450</v>
@@ -4897,28 +4897,28 @@
         <v>415.0416031114632</v>
       </c>
       <c r="F56" t="n">
-        <v>44.14122742424453</v>
+        <v>44.14122930637033</v>
       </c>
       <c r="G56" t="n">
-        <v>47.73906567743065</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.597838253186123</v>
+        <v>-3.597827348661971</v>
       </c>
       <c r="I56" t="n">
-        <v>3.597838253186123</v>
+        <v>3.597827348661971</v>
       </c>
       <c r="J56" t="n">
-        <v>0.08394081228621175</v>
+        <v>0.08394080252370305</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.6335420628992394</v>
+        <v>-0.6335420539697235</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7745107115988911</v>
+        <v>0.7745107128960285</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9157946739617642</v>
+        <v>0.9157946856265052</v>
       </c>
       <c r="N56" t="n">
         <v>30.86363636363636</v>
@@ -4942,13 +4942,13 @@
         <v>2.104039468706664</v>
       </c>
       <c r="U56" t="n">
-        <v>-44.14122742424453</v>
+        <v>-44.14122930637033</v>
       </c>
       <c r="V56" t="n">
         <v>415.0416031114632</v>
       </c>
       <c r="W56" t="n">
-        <v>3.638765461466175</v>
+        <v>3.638754028253483</v>
       </c>
       <c r="X56" t="n">
         <v>450</v>
@@ -4977,28 +4977,28 @@
         <v>422.8894123608085</v>
       </c>
       <c r="F57" t="n">
-        <v>49.38487831679006</v>
+        <v>49.38487831897447</v>
       </c>
       <c r="G57" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375982</v>
       </c>
       <c r="H57" t="n">
-        <v>-3.887271144184871</v>
+        <v>-3.88727115478535</v>
       </c>
       <c r="I57" t="n">
-        <v>3.887271144184871</v>
+        <v>3.88727115478535</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.06968582714322021</v>
+        <v>-0.06968582713649013</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.2897675878730172</v>
+        <v>-0.2897675878745486</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5855777909499478</v>
+        <v>0.5855777909380895</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6744497164571909</v>
+        <v>0.6744497164453946</v>
       </c>
       <c r="N57" t="n">
         <v>47.70588235294117</v>
@@ -5022,13 +5022,13 @@
         <v>1.741941262594203</v>
       </c>
       <c r="U57" t="n">
-        <v>-49.38487831679006</v>
+        <v>-49.38487831897447</v>
       </c>
       <c r="V57" t="n">
         <v>422.8894123608085</v>
       </c>
       <c r="W57" t="n">
-        <v>3.955377018709324</v>
+        <v>3.955377030000283</v>
       </c>
       <c r="X57" t="n">
         <v>450</v>
